--- a/PCAstatic/PCAstatic_predicted_variables_matrix_10.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-0.2840489506275167</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2718452899228879</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2607737224222964</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2509043791431006</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2422706187977395</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2348747162351731</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2286931217929774</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2236813043030371</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2197781512441491</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2169099293060074</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2149938145487678</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2139410060958639</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2136594400060493</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.21405612208435</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2150391002328251</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2165190986770542</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2184108380073262</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2206340663504853</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2231143280323197</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2257834967179281</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2285801001841177</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2314494635794552</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2343436972940714</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.237221554446921</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2400481815710364</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2427947844105449</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2454382289082788</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2479605955250938</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2503487030485339</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2525936160671119</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2546901483461927</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2566363724732383</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2584331443679518</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2600836495947405</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2615929768839539</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2629677228734532</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2642156308284412</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2653452649872589</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.266365721213308</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2672863738053056</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.268116657624438</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2688658841306367</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2695430894726261</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.2258007160263557</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2350194805173822</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2435996141931023</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2513555512450008</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2581651612559621</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2639591879624678</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2687117931729987</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2724321705156465</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2751571588539758</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2769447780506441</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.277868610850421</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2780129591415677</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2774687083645777</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2763298390110621</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2746905283896995</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2726427889994387</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.270274592104865</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2676684267575625</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2649002458823285</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2620387524379582</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2591449802804098</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2562721263247333</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2534655929639519</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2507632024373015</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2481955478826879</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.24578644907047</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2435534842009578</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2415085725627419</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2396585862102349</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.238005972058115</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2365493688548738</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2352842063494408</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2342032765791748</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.233297269570707</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2325552678523837</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2319651960304282</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2315142232875861</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2311891180339113</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2309765550881428</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2308633767103651</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2308368095591036</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2308846402262024</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2309953524285679</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.1657004084799351</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1773482025611778</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1884365765499984</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1987795607031939</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.20824293804222</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2167373616274835</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2242119059928036</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2306481002825116</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2360544455453397</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2404614124392725</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2439169101890147</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2464822151472179</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2482283457103732</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.249232868879543</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2495771219902844</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2493438309888665</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.24861510422705</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2474707783071105</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2459870902699459</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2442356485839618</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2422826741013556</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2401884814735805</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.238007171469218</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.235786505176163</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2335679321232331</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.231386745832346</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2292723421129333</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2272485574392606</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2253340669212409</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2235428236141115</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2218845231488</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2203650798522583</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2189871026263101</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2177503608354613</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.216652232297949</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2156881271663079</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2148518830159076</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.214136127828856</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2135326087667744</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2130324856726548</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2126265891351862</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2123056436964434</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2120604573949953</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>-0.06021739333399623</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05321278021964305</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.04721212317012547</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.04222647746368345</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.03823975289877728</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.03521423363265907</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.03309551071356098</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.03181680538681761</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.03130272449499219</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.03147248955823723</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.03224268250404724</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.03352954919182065</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.0352508997871189</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.03732764303749022</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.03968498984796314</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.04225336022731016</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.0449690265600933</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.04777452510409674</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.05061886648290301</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.05345757464234205</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.05625258221640585</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.05897200849422903</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.06158984421909762</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.06408556532905542</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.06644369552347644</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.06865333527031267</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.07070767261015352</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.07260348891379231</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.07434067064844094</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.0759217362333324</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.077351385238641</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.07863607551525337</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.07978363234349756</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.08080289235810215</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.08170338384219461</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.08249504397998307</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.08318797280864471</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.08379222290602154</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.08431762328196959</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.08477363549676228</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.08516923969838625</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.08551284804016362</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.08581224279906947</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>0.170528300750378</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1823175148040031</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1925817809223097</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2013239818500456</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2085827038587653</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2144245432878858</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.218937378287992</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2222245071029276</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2243995929219746</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2255823420740457</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2258948487532056</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2254585442885708</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2243916943876571</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2228073922703661</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.220811999069367</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2185039853629814</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2159731295018655</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2133000298129458</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.2105558891118343</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2078025314572702</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.205092612881604</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.2024699899915588</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1999702128478619</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1976211113473662</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1954434473650865</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1934516080724962</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1916543190396668</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1900553588688296</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1886542601261098</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1874469841825666</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1864265602067203</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1855836809436964</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1849072500578897</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1843848777029545</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1840033226184868</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1837488804458878</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1836077191193526</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1835661631371072</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.183610929270071</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1837293168381794</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1839093560972856</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1841399185504966</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1844107931453133</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>-0.4333257937725761</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4238655945766829</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4149036363756363</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4066081622498261</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.3991012251621934</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.3924646385331931</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.3867456430396549</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.3819622078844941</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.3781079275421786</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3751565004273584</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.3730657878500171</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3717814591970819</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.3712402341423812</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.3713727361309728</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.3721059740346398</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.373365471072571</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.3750770619695317</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.3771683809058874</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.3795700640707742</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.3822166915215997</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.3850474935514858</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.3880068468638457</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.3910445855646692</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.3941161513411378</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.3971826062452374</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.4002105302951282</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.4031718246989222</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.4060434399473181</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.4088070463613155</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.4114486629620762</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.413958258789612</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.4163293390678669</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.4185585269235752</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.4206451497382955</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.4225908376664637</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4243991404027073</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.4260751669410618</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.4276252518458739</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.4290566504546941</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.4303772644600589</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.4315953984697244</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4327195474212049</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4337582141218096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.2361959381227152</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2242375098392437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2126620804722387</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.2016303509799341</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1912688787842279</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.181672826330013</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1729089379815295</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1650185970964661</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1580208916757363</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1519156268542803</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.1466862370450426</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1423025606396179</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1387234484054296</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.135899183596564</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1337736978668571</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1322865725850954</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1313748202064721</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1309744449583057</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1310217862140939</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1314546515104805</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1322132491696871</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1332409329092984</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.134484772659345</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1358959670918468</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1374301141451054</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.139047356149602</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1407124160954844</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1423945411858552</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1440673691561661</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.1457087319650661</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.1473004104281719</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1488278522201963</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1502798644539099</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.1516482907924544</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1529276817953789</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1541149659645008</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1552091277649027</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1562108977664974</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1571224589961873</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1579471726197142</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1586893251925507</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1593538989344181</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.1599463657933914</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>-0.3862736865616434</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3726002344247453</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3590048203942653</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3459232212750236</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3336867963569256</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3225366028973139</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.312636452695678</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3040848572450345</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.2969258642079486</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.2911588199484919</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.2867471069427519</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.2836259110801183</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.2817090753574282</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.2808950959633818</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.2810723157331569</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.2821233691816216</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.2839289330266123</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.2863708362070853</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.2893345836507894</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.2927113481854915</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.2963994847872626</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.300305620660738</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.3043453733706352</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.3084437473828381</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3125352569730036</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3165638206026298</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3204824686472184</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.3242529028942746</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3278449426117828</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3312358883118633</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.3344098306781199</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3373569285537814</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3400726764533544</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.3425571788037942</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3448144450728132</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3468517171238921</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3486788375645691</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.3503076655350237</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3517515443207828</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.3530248233647139</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.3541424356933451</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3551195304514126</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3559711591438384</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.3830790316245036</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3933188694998863</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4020652035345781</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4093672502911399</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4152972763251291</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4199449213319608</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4234122605462814</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4258095451624493</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4272515542853616</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4278545003340383</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4277334354498346</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4270001126099877</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4257612600410827</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4241172310759349</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.422160993863772</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4199774266334298</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4176428848966237</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4152250074270064</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4127827283588043</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.410366463524924</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4080184403149448</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4057731419141298</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.4036578387591211</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.4016931823464011</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.3998938390652528</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3982691444000173</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3968237605631122</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3955583232979173</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.394470066161596</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.393553413010552</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3928005316292569</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3922018434439991</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3917464860354788</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3914227267060244</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.391218326673384</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3911208565635647</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3911179647735415</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3911976009867393</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.3913481976672181</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3915588127503518</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.3918192370064175</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.3921200696965282</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3924527661846777</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1879,132 @@
       <c r="E11" t="n">
         <v>-0.2230743489032402</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2153669378638353</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2083009248299674</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2019532630179235</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.1963722966899931</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.1915817635753689</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.1875845390750139</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.1843661378985684</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.1818979401423858</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.180140135274365</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.1790443813088889</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1785561816710718</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.1786169855038604</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.1791660199224255</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.1801418650695047</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.1814837849080353</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.1831328285017831</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.1850327180455638</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.1871305410710921</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.1893772650433689</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.1917280929682156</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.194142678668391</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.1965852200858808</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.1990244483757145</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.2014335297225463</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.2037898957870878</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.2060750175248459</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.2082741358596511</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.2103759613786627</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.2123723538777288</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.2142579912543756</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.2160300359436329</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.2176878058382878</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.2192324554452158</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2206666719150399</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2219943895525282</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.2232205254762451</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.224350738252007</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.2253912105774947</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.2263484564447596</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.2272291526513867</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2280399940662359</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.2287875716771685</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2022,132 @@
       <c r="E12" t="n">
         <v>-0.05009158322715405</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.03563961726420556</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.02390423168178249</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.01478493808001572</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.00813336653523352</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.003766028920804583</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.001475304102451711</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.001038779663056495</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.00222709380130167</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.004810430067448739</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.008563808254187545</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01327130399251799</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.01872931833385086</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.02474900853385302</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.03115798267146571</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.03780135352321397</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.04454224089951821</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.05126180601358282</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.05785889602262212</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.06424937138922407</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.0703651830100748</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.0761532601095191</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.08157426373776422</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.08660125444190825</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.09121831641219129</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.09541917427012633</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.09920583277302536</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.102587264155038</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.1055781626790435</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.1081977812841294</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.1104688610063007</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.1124166601340183</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1140680868295354</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.1154509361855535</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.1165932303705596</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.1175226586162925</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.1182661122847591</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1188493090858265</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.119296499664532</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.1196302492046771</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.1198712863673156</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1200384117656775</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1201484582395823</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2165,132 @@
       <c r="E13" t="n">
         <v>-0.01167089453227894</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01161418590576917</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.01170537433510222</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.01199870282662461</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.01252718103292345</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.01330650945002029</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.01433857798235228</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.01561450195416446</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.01711725004935877</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.0188238978139851</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.02070754215671789</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02273890959256299</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.02488768897014516</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.02712361735357691</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.02941734588530404</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.0317411108019609</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.03406923327217902</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.03637847030859911</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.03864823761755415</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.04086072384633167</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.04300091424673896</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.04505654029044619</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.04701797025608525</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.04887805427937549</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.05063193583906881</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.05227684016728357</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.05381184864468357</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.05523766688714699</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.05655639296485222</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.05777129102657564</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.05888657453698677</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.05990720237512554</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.06083869018767871</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.06168693863881263</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.06245807954532744</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.06315834032690729</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.06379392673062437</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.06437092340046409</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.06489521154998357</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.06537240275258555</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.06580778768246474</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.06620629851322862</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.06657248360376655</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2308,132 @@
       <c r="E14" t="n">
         <v>0.1192533202094695</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1459281326794369</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1678175500409097</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1850505413620532</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1978577851056937</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.2065453792140315</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2114723616486906</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2130316610361538</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.2116341387892921</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2076953894394117</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.2016249901157961</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1938179166082545</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1846478702252947</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1744622837796566</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.1635787956421591</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1522829980121105</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1408272800614435</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.1294305993173105</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.1182790263988632</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.1075269196729027</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.09729859795550788</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.08769039124926239</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.07877296166961126</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.07059379905187373</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.06317980804238089</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.05653991553714295</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.05066763892218747</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.04554356650489337</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.04113771166102975</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.03741171145854473</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.03432084879970321</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.03181588442790366</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.02984469148410476</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.028353690702567</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.02728908885520627</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.02659792674792516</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.02622894600739081</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.02613328614318543</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.02626502499980678</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.02658157679711946</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.02704396256650787</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.02761696799061779</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.02826920351141706</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2451,132 @@
       <c r="E15" t="n">
         <v>0.05868211280794128</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.0856478969512577</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.106662762440974</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1219978826541698</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1320307524289743</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1372141300846345</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1380497676625785</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1350664247842007</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1288017176141284</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1197873641744726</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.1085374221641779</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.09553915167417068</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.08124617110186011</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.06607360683521013</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.05039496513075641</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.03454047830427236</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.01879669777025904</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.003407124659944971</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.01142631432604006</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.02554112179670096</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.03881157498269121</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.05114570485257838</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.06248203603569576</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.0727861983071272</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.08204750449759299</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.09027557440237455</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.09749706981002516</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1037525923428349</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.1090937835341549</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1135806555467607</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.1172791711967604</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.1202590834835194</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1225920375999237</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1243499323476402</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1256035329311995</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1264213231648749</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1268685821040183</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1270066679121857</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1268924903018488</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.126578152046706</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1261107397679996</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1255322443606379</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1248795919673108</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2594,132 @@
       <c r="E16" t="n">
         <v>0.4490956752129313</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.488409793388259</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5201232624912013</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.54452615552353</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5620525897382777</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5732408131128607</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5786992872011358</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5790781562523911</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5750455427776513</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5672681261848955</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.556395504379913</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.543047884412088</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.5278066936366972</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.5112077432312653</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.493736610170082</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.4758259323050983</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4578543352563957</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.4401467308649215</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.4229757463691875</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.4065640622804725</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3910874558048304</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3766783658876273</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.3634298155383241</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3513995468300204</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3406142435480571</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3310737355347742</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.3227550970092749</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.3156165682479381</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.3096012457770388</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.304640500508394</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.3006570959649902</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.2975679898764638</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.295286812001157</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.2937260191145221</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.2927987347802303</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2924202868943458</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.292509460178093</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.2929894839095868</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.2937887773489611</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2948414766424601</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.2960877676034182</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.2974740487706485</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2989529486403564</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2737,132 @@
       <c r="E17" t="n">
         <v>0.6524363117362736</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.6703768661177696</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6827460599270363</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6899384090315515</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6924255288645943</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6907279708580352</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.6853919049298371</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.6769700493762059</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6660063429604162</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6530238790702207</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6385156701245054</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6229378565388446</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.6067050174902354</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.5901872781638527</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.5737089399938433</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.5575483872970635</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5419390467722233</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.527071196783591</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5130944421893928</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.5001206884551486</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4882274663582015</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4774614759248485</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.4678422353281212</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.4593657371643566</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.4520080306064048</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.4457286631726409</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.4404739300476912</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.4361798918801908</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.4327751336549391</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.4301832475347891</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4283250314829973</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.4271204030411456</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.4264900339136092</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4263567160816182</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4266464741373219</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4272894414982565</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.4282205202457126</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.429379845636841</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4307130769770016</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4321715366080381</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.433712218365978</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.435297686077208</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.4368958815771422</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2880,132 @@
       <c r="E18" t="n">
         <v>0.01831926273430454</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.00925565144045172</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0006321619333554962</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.007749660650392315</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.01602062313165582</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.02425823256398738</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.03249879096821476</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.04074759838170731</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.04898746462903933</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.05718573651386107</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.06530002855586384</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.07328282934061972</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.08108513813666335</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.08865926979311711</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.09596095056624766</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1029508137537561</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1095953918188343</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1158676908850278</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.1217474238371477</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1272209695384644</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.1322811176782172</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1369266513598217</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.1411618126463308</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.144995689855888</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.1484415594355318</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.151516209742338</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.1542392690374007</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.1566325554593186</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.1587194626917726</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.160524391468066</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1620722339492542</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1633879153494442</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.1644959949340382</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.1654203266523808</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1661837781514968</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1668080057177052</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1673132817734882</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.1677183708847273</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1680404497764764</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1682950665838429</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1684961344502555</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1686559546024648</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1687852641561945</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3023,132 @@
       <c r="E19" t="n">
         <v>0.4206122329432238</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.4290841527329795</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4350310815685937</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4385725214117783</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.439878273186366</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4391534946640347</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4366261254394472</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.4325364171628625</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4271283327121502</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.4206425891050882</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.4133111414786934</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4053529265201282</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3969707031214172</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3883488446795016</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3796519514010818</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3710241625900604</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3625890587950467</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3544500524875471</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3466911741448332</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3393781685939903</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.3325598244485873</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.3262694675138693</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.3205265571243441</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.315338332416673</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.3107014634051771</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.3066036692846674</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.3030252735150688</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.2999406718466494</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2973196954534912</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.2951288567140355</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2933324698945413</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.2918936430589135</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.290775140968238</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.2899401215794762</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.2893527510475947</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.2889787039265511</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.2887855566023885</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.2887430829272899</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.2888234616073151</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.289001405177514</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.2892542204227034</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.2895618099140739</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.2899066239714055</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3166,132 @@
       <c r="E20" t="n">
         <v>0.3876608159526563</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.4228082104592691</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.450308498446829</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4705442149991244</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4840242873373607</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4913459592952871</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4931625521597567</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.4901565782388171</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.4830176051459396</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.4724243226113181</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.4590303036412417</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4434530013267637</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.4262655689975937</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.4079911328011161</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.3890991809898564</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.3700037637970257</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.3510632230098347</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.3325811926580285</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.3148086329118074</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.297946679294518</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.2821501092500378</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2675312482062308</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.2541641575175188</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.2420889668441758</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.2313162333301678</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.2218312290453442</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.2135980762545018</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.2065636669114773</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.2006613181647025</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.1958141294849806</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1919380192342536</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1889444290877778</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.1867426937463363</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.1852420809066493</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.1843535125958001</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1839909838320289</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1840726982700668</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.18452194314766</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1852677275939492</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.186245209309818</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1873959349003746</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1886679188395002</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1900155852779935</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3309,132 @@
       <c r="E21" t="n">
         <v>0.6066078205886847</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.638488058453981</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.662891214383613</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6804837538975027</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6919684820198619</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.6980625866990122</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6994796111946892</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.6969149067584971</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.691034144749043</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.6824644981425471</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6717881429654108</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6595377690429464</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.6461938240197614</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6321832434826677</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.6178794435658674</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.6036033717063748</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5896254275722781</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5761680808537147</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5634090265699954</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5514847324579636</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5404942471965508</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5305031527553282</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5215475589058185</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5136380526653344</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.5067635298686641</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.5008948498999707</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.4959882676180494</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.4919886084784349</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4888321636613305</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.486449291578529</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.4847667204301466</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.4837095535298236</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4832029849640838</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4831737378701336</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4835512412943538</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4842685643282488</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4852631281111812</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4864772174421254</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4878583142563269</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4893592751937328</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4909383750057771</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4925592367008539</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4941906681950745</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3452,132 @@
       <c r="E22" t="n">
         <v>0.4345068148300964</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.4543289792598373</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4687457452291025</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4781251094149284</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4829074976669784</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.4835799600814297</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4806546270206946</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4746510250758036</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4660817925408266</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.455441372107375</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.4431972952893044</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.429783713339006</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.415596866597982</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.4009922169698066</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.386282996070606</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3717399451804511</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.3575920433689331</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.3440280381583682</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.3311986097333562</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.319219015672939</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.3081720788683256</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.2981113968521825</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2890646661790419</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2810370306161027</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2740143765257246</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.267966512729074</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2628501851391195</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2586118883851236</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.2551904474132802</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2525193515815762</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2505288320580398</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2491476804038576</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2483048121284998</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2479305838156086</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2479578762221708</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.2483229586434209</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2489661519094599</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2498323087343557</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.250871130869912</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2520373427159037</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2532907407929191</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.254596137873734</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2559232196687525</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3595,132 @@
       <c r="E23" t="n">
         <v>-0.01247520440793229</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.003956849604826534</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01566081365161567</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02300249569741861</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02639706072197501</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.02628903626572671</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.02313576117126231</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.01739387202105364</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.009508475858227811</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-9.53253832260692e-05</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.0110188629519182</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.02289455650715677</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.03538904296812947</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.04820500042966937</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.06108186692920679</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.07379563517087055</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.08615788791418483</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.09801422387678241</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.1092422100591962</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1197489829394462</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1294686077677253</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1383592921486166</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1464005372856207</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.1535902978112373</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1599422091983465</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.1654829305069934</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1702496398035703</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.1742877101004652</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.1776485851680971</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.180387867095081</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1825636210107299</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.1842348969057674</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.1854604639410868</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.1862977489563272</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.1868019680072533</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.1870254375963984</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.1870170507367374</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.1868219020256553</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.1864810454308017</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.1860313684285017</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.1855055664212291</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1849322019297285</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.1843358338491654</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3738,132 @@
       <c r="E24" t="n">
         <v>4.437412329710925</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.280736139443485</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.085813285602591</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.864098745523664</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.625490719172794</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.378424984439813</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.129978189165078</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.885976491991049</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.65110666685564</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.429027498530806</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.222479767843087</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.033393475930234</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.862991209825651</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.711886745598918</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.580178146254897</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.467534757175478</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.373277641542407</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.296453135416881</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.235899336538899</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.190305469873017</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.158264193135662</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.138317013842836</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.128993083388352</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.128841711820546</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.136459008799764</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.150509101983552</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.169740414730034</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.192997501895684</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.219228947249031</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.247491820352199</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.276953176403265</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.306889061137961</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.336681455997229</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.365813567776869</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.393863833139612</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.420498972793344</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.445466393784576</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.468586202049602</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.489743051804446</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.50887802411413</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.525980694523932</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.541081519315994</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.554244642032287</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3881,132 @@
       <c r="E25" t="n">
         <v>0.4256399452744606</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.399750326108357</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3772381056151074</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3578990941167317</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3415147791132702</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3278575947742441</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3166948603012568</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3077927049255927</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3009195054123424</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2958488750016366</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.2923621982639802</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.2902507306515884</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.2893172831109349</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.2893775160379765</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.2902608695706587</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2918111596967294</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.2938868716857012</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.2963611838544786</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.2991217555444028</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3020703133731543</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3051220693293806</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3082050031498336</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3112590397421846</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3142351502964686</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.317094403277241</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3198069888177069</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3223512372476315</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3247126496667145</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.3268829556972254</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.328859210872089</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3306429435816282</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.3322393591461352</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3336566064245659</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3349051104257542</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3359969726645318</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3369454395023475</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.337764437427126</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3384681731531507</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3390707955486089</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.3395861157135531</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3400273810199607</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3404070985724977</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3407369033367578</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4024,132 @@
       <c r="E26" t="n">
         <v>0.3180420993179904</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.2963538226040532</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2752859965792911</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2551716145553314</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2362661386896858</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2187559802693971</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2027669165616006</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1883722244538549</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1756003699886484</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.164442173404499</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1548574222296222</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1467809224020211</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1401279872144756</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1347993699598608</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1306856507780539</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1276710922756218</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1256369824340024</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1244644872203006</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.124037039060346</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1242422907407635</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.124973667187145</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1261315497721099</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1276241292538877</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1293679641094311</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1312882809361824</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1333190528238831</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1354028902382328</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1374907771201834</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1395416826987307</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1415220770464765</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1434053757714883</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1451713365194485</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.1468054272275346</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1482981833842552</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1496445689546852</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1508433531651313</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1518965130332549</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1528086693993789</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1535865622756689</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1542385695898058</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1547742718613175</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.1552040640102232</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.155538814353686</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4167,132 @@
       <c r="E27" t="n">
         <v>0.2489570882746679</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.2226597849171828</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1975184016587611</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1738058184213906</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1517269441727404</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1314249782389836</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1129885587633564</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.09645862718637432</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.08183512824282385</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0690833818380244</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.05814008063857676</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04891887122591861</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.04131549207411649</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.03521245037538998</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.03048322769322552</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.02699601156004475</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.02461695695978759</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.02321298814549524</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.02265415731090953</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.02281558206864618</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.0235789883042083</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.02483388864476533</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.02647842944133015</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.02841994081581235</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.03057522502843755</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.03287061827388955</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.03524186013781001</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.03763380347071651</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.0399999954951655</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.04230215867741761</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.04450959737797098</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.04659855364270146</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.04855153278987097</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.05035661675559742</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.05200678053636561</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.05349922455512137</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.05483473341075045</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.05601706927389658</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.05705240618219578</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.05794880967561106</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.05871576460255737</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.0593637525199934</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05990387890156908</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4310,132 @@
       <c r="E28" t="n">
         <v>1.005688264494966</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9751248827382816</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9461392864962912</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9191429531219713</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8944304531478506</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8721947009924937</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8525414118199892</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8355026159344339</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8210491342885802</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8091019690630826</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.7995426055665953</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7922222463177382</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.7869700114744729</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.7836001478232906</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.7819182937613629</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.7817268515558666</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.7828295213640341</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.785035054307997</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.7881602843137763</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.7920325003143586</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.7964912216289487</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.8013894397430746</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.8065943892655154</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.8119879095292792</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8174664561912599</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8229408193651208</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8283356014152662</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8335885036782381</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8386494671928701</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.8434797081359846</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.8480506841879598</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.8523430235895451</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8563454442803964</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.860053686299175</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.863469476629525</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.8665995419385123</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.86945468120584</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8720489071051181</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8743986621856183</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.8765221134192566</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8784385265210457</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.8801677196139152</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.8817295942773139</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4453,132 @@
       <c r="E29" t="n">
         <v>4.679320020200001</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.308984311072495</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.959057758051439</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.6317335448509</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.328593564727343</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.050654640902587</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.798420755318838</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.571938584152535</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.370854596224767</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.194472222132285</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.041807919307666</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.911645180377916</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.802585716443817</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.713097204883027</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.641557135248914</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.586292421530882</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.54561457558282</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.51785035379589</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.501367895128733</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.494598461481603</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.49605396972113</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.504340567792627</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.518168555420345</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.536358983662687</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.557847288305163</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.581684321282535</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.607035143705879</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.633175935326368</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.659489360017617</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.685458706595229</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.710661100352194</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.734760054242772</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.757497600704473</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.778686216525076</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.798200724657614</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.815970329053734</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.831970911904141</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.846217697521128</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.8587583637574</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.869666660529311</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.879036575829009</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.8869770726307</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.893607405326347</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4596,132 @@
       <c r="E30" t="n">
         <v>0.8804182504345877</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8403546769846922</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8042562400992591</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7721004717929723</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7438055405499392</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7192386573935157</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6982257889404281</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6805606116054973</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6660127693928636</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6543353119744073</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6452713149320676</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6385596930089484</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.633940231012349</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6311578639955384</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6299662441639494</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6301306367050492</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6314301908483599</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6336596359028452</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6366304546924629</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6401715885943822</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6441297291961063</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.648369251406731</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.6527718417257888</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6572358733838415</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6616755773505338</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.6660200549048443</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6702121737295218</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.6742073854714541</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.6779724985328321</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6814844356384244</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6847290015578544</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6876996823266138</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6903964934675474</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.6928248911131188</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6949947566026768</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.6969194621020611</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.6986150220795949</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.7000993330790256</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.7013915021554988</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.7025112625782161</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.7034784739410105</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.704312702643391</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.7050328777898909</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4739,132 @@
       <c r="E31" t="n">
         <v>-0.3026982939760076</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3444200341677657</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3798062902011966</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.409352333098457</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.4335661275588658</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.4529607569259642</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.4680453367661477</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.4793176891271839</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.4872581773350988</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.4923247355804933</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4949489612742767</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4955331731871638</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4944483403698945</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4920327940912903</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4885916388252719</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4843967807430939</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4796874936204485</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4746714433375571</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.4695260938113943</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4644004196517563</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4594168542728729</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4546734066428796</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.4502458852070015</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4461901735851623</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.4425445091875713</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4393317226716929</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.4365614029562193</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4342319591188892</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.432332556779971</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4308449123963238</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.4297449341834159</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.4290042030982348</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.4285912914349735</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.4284729201094651</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4286149586552376</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.4289832743533495</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.4295444388075441</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4302663016988254</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4311184424554523</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.4320725112031683</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.4331024706638143</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.4341847506948477</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4352983269525216</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4882,132 @@
       <c r="E32" t="n">
         <v>0.7173373309110828</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6883023985969474</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6613759680819309</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6367832288786947</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6146596373994518</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5950651605677677</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5779966497104494</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5633991626139843</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5511762072442832</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5411989223499991</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5333142344621948</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5273520417672004</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5231314795196718</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5204663228069076</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5191695824918779</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.519057350103114</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5199519476894769</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5216844392003467</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.524096560568258</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5270421260848007</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5303879686262086</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5340144706325017</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.5378157413915131</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.5416994941250727</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.545586673679705</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5494108823902929</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5531176480353466</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5566635738654901</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.5600154065852797</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5631490540126095</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5660485800237322</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5687052003923652</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.5711162993094699</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5732844827725798</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.575216681693989</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5769233145190185</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5784175163832714</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.579714439377962</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5808306263352783</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5817834586859976</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5825906773691993</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5832699744749925</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5838386522585234</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5025,132 @@
       <c r="E33" t="n">
         <v>0.8623122539927577</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8403258480132826</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.820631816904526</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8032453922324404</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7881341747010605</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7752272811963055</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7644231648810242</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7555967637148533</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7486058498969359</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7432966039867285</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.739508448659033</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7370781890986748</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7358435096563354</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7356458770937887</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7363329001442458</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7377601941224782</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.7397927982325661</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7423061921193052</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.745186957039407</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7483331256975789</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.7516542632155857</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.7550713198277292</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7585162937111054</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.7619317398855703</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7652701584040429</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7684932921610673</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.7715713616445738</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7744822609093793</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7772107360220361</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.779747564267697</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.7820887495640741</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.7842347468297064</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7861897255298759</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7879608802928029</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7895577943642597</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7909918597583275</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.792275756269024</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.7934229900312892</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.7944474910562577</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.7953632681075721</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.7961841184228212</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.7969233891047834</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.797593786496907</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5168,132 @@
       <c r="E34" t="n">
         <v>-0.712577617694209</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7371453599826263</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7592612646424211</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.7789234077822013</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.7961799706475167</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.8111186649630072</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.8238583792898025</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.8345415118773969</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.8433272454259466</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.8503856668383283</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.8558926786773475</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8600256416417125</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8629596946386577</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8648647028539449</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8659027869843683</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.8662263879155009</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.8659768210839904</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8652832740516276</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8642621999633794</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.8630170589996264</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.8616383599726257</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.8602039550293772</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.8587795420543809</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.8574193317654917</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.856166839546861</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.8550557656101988</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.8541109309518014</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8533492406161333</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8527806498427953</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.8524091126420917</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.8522334961211011</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8522484473986883</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8524452031587215</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8528123347699444</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8533364244381753</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8540026700536891</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8547954182647298</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8556986268644501</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8566962588448126</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8577726114714886</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.858912584494214</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.8601018921536624</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.8613272240046065</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5311,132 @@
       <c r="E35" t="n">
         <v>0.7970136408364131</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.7900167220990784</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.7840498815788089</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.7791719493359112</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7753968444575917</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.7727028934737258</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.7710409837772033</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.7703416152192212</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7705209230573288</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.7714857611666029</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.7731379380806064</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.775377697049906</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.7781065266531514</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.7812293824151474</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.7846563934023577</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.7883041214508276</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.7920964347748782</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.7959650522561188</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.7998498096752111</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8036986944461084</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8074676909719677</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8111204745124908</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8146279874072558</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8179679276321062</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8211241759829773</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.824086184697461</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8268483470541156</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8294093644457813</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8317716246145509</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8339406021663914</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8359242901522252</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8377326694055235</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8393772204575791</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.840870481202308</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.8422256520432247</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8434562490160156</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8445758043301352</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8455976129008405</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8465345227372554</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8473987665000571</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8482018311312706</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8489543621750313</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.849666099238219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5454,132 @@
       <c r="E36" t="n">
         <v>0.738450913681989</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7272252882138051</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7182457961370945</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.711440284803329</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7066901973213029</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7038430676223943</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7027231965219919</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7031406645747827</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7048988274320837</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7078004510067032</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.711652639498606</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.716270701125745</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7214810855621535</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7271235157655594</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7330524260023166</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7391378078569301</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.745265556885673</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.7513374042053355</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.7572705095123907</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7629967846374486</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.768462009639563</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.7736247965781218</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.77845544946</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.7829347624742827</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.7870527925423823</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.7908076364786634</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.7942042377213565</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.7972532426902208</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.7999699223773821</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.8023731707890528</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8044845883248809</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8063276550957662</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8079269965205678</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.8093077412832507</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8104949698477883</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8115132501902556</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.812386256187018</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8131364631656124</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8137849144518956</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8143510523048157</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.8148526063907664</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.8153055328857316</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8157239973790558</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5597,132 @@
       <c r="E37" t="n">
         <v>0.7086720476409173</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.6959193312734556</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6856397399742195</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.6777436045933576</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6720945122011093</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.6685220410196001</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6668327009297164</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.6668191726082955</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6682679950632727</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.6709658599410694</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.6747046683780409</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.679285497353654</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.6845216114924664</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.6902406448459504</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.6962860663461519</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7025180327093112</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.7088137235756504</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7150672454292564</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.7211891831353788</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7271058705777957</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7327584447547397</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7381017407431383</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7431030781680361</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7477409832551056</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7520038842568331</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7558888120895068</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7594001324544166</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7625483305860407</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.7653488651006434</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.7678211032238422</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.769987345955393</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7718719484732102</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7735005382681054</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.7748993311121966</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.7760945429701597</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.777111894334348</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.7779762021720361</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.7787110536851635</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.7793385553694656</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7798791503906046</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.7803514970402988</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.7807724009666457</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.7811567939620044</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5740,132 @@
       <c r="E38" t="n">
         <v>0.685185077051472</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6718561115156656</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6604263598269919</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.650821541385758</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6429430346384473</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6366741759960125</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6318857780999771</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6284408998670399</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6261989110574675</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6250189036566676</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6247625069661394</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6252961637729424</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6264929232179728</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6282338032499437</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6304087725435316</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6329173987982269</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6356692075090888</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6385837925841156</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.641590717507042</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6446292430451165</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.6476479147401021</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6506040405886701</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.6534630864325053</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.6561980136730683</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6587885810438265</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.6612206293576596</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.6634853654387201</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6655786588788171</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6675003628528365</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.6692536680023669</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.6708444963612875</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6722809404559084</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.6735727510653666</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.6747308756725574</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6757670483667</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.6766934308690278</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.677522303434965</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6782658036303567</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6789357103757082</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6795432701898971</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.680099062231597</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6806128985202068</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6810937556054508</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5883,132 @@
       <c r="E39" t="n">
         <v>0.5734567075730668</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5707158247487459</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.568686398838395</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5673802662033459</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5667808373230256</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5668500464866574</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5675342827564243</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5687693980726737</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5704848685082978</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5726071987463328</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.5750626583372428</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5777794345229086</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.5806892802474737</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.5837287290266309</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.5868399413006162</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.5899712401779617</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.5930773882587762</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.5961196515428481</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.5990656912427295</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6018893195742606</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6045701512272956</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.607093178181525</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6094482917958762</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6116297726478945</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6136357654234198</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6154677532527911</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6171300432543619</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6186292726743831</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.619973942896722</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6211739867260054</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6222403727108282</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.6231847488552416</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6240191268514921</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6247556069394075</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6254061426425539</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6259823439335245</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.6264953168261932</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6269555369678284</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.6273727544955098</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.627755927216611</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.628113179059922</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6284517807103692</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.6287781493746654</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6026,132 @@
       <c r="E40" t="n">
         <v>0.7450068804533296</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7416432034090766</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7386824605251966</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7362600475769563</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.734459884373025</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7333241272911869</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7328616606001597</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7330554746935841</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7338690026218367</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7352515070767837</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7371426124479385</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7394760750334627</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7421828793447542</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.7451937417991888</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7484410960012821</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7518606269252975</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.7553924149265225</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7589817447059051</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.7625796290977661</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7661430927592146</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7696352564230469</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7730252582589329</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.7762880450191458</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.7794040619952276</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.7823588673679377</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.7851426932925168</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.7877499730278408</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.7901788505958658</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.7924306868500962</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.7945095734393056</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.7964218639735862</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.7981757297297397</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.7997807454660572</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.8012475093455221</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.8025872995833846</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.8038117692314719</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.8049326794785848</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8059616709745745</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.8069100719654289</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8077887414475587</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.8086079451005919</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8093772614279166</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8101055153110956</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6169,132 @@
       <c r="E41" t="n">
         <v>0.5427251925601879</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5391204966186043</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5367926717996307</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5355956167783453</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5353840271973028</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5360163285074082</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5373570310366874</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.539278540686548</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5416624823295619</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.54440059519885</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.5473952587694878</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5505597047388635</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5538179669064919</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5571046165474234</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5603643265447875</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.563551303225843</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5666286205952126</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.569567487515085</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5723464743763961</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5749507219712603</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.577371151651677</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5796036924780963</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5816485379538108</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5835094421286838</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.585193062349485</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.586708353734803</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5880660185516557</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5892780120528153</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5903571049778368</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5913165018032714</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5921695129240422</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.5929292782343537</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.5936085390299572</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.5942194547531814</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.5947734608288635</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.5952811636762091</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.5957522689133992</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.5961955387847135</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.5966187749215459</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.5970288226874736</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.59743159354293</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.5978321020871745</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.5982345146850799</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6312,132 @@
       <c r="E42" t="n">
         <v>0.6438374447669671</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6250410146120765</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6092285989969752</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.596308622543971</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5861357138562417</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5785245302310321</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5732617141239743</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.5701160825705199</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.5688472029487244</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.569212509653763</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.5709731148384465</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.5738984579950703</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.577769928673273</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.5823835858095402</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5875520870945673</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.5931059328559208</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.5988941210171653</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.6047843025482379</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6106625201425984</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6164326063885246</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.622015311274528</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.6273472224027994</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6323795347774844</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.6370767205384001</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6414151426083955</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6453816500073998</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.648972186647411</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6521904398357824</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.6550465495364307</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6575558947082273</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6597379687774441</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6616153525123766</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.6632127892470564</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.6645563645324182</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6656727898562251</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6665887880420652</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.6673305762845764</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6679234414727282</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6683914014644685</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.668756945272768</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.6690408446734762</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.6692620295181159</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6694375189991452</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6455,132 @@
       <c r="E43" t="n">
         <v>0.684419867783948</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6747129857991446</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.666696981018256</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6602813026494142</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6553558503527106</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6517969802046326</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.649472679907624</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6482469466906883</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6479834263858578</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6485483808327553</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6498130533902423</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6516555008325998</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6539619564286767</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6566277846708602</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6595580835920684</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6626679861862521</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6658827082315518</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.6691373858015651</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6723767418978596</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.6755546179048507</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.678633401932877</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.6815833825739844</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.6843820531621806</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6870133883306037</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6894671115206985</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.6917379691496749</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.6938250244034486</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.6957309811071064</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.6974615458407796</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.699024834416397</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.7004308270059028</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.7016908746063761</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.7028172581319585</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.7038228002251311</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.704720528868561</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7055233910410357</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.706244013984388</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.7068945111201584</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7074863292623562</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.7080301335031917</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.708535725989177</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7090119947424597</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.7094668887037786</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6598,132 @@
       <c r="E44" t="n">
         <v>0.6611712243276378</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6566173677427354</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6533746567219697</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6513705068815941</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6505099488864201</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6506827615875086</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6517695050813543</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6536465221739232</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6561900059772051</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6592792359329351</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6627990834958174</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6666418834622714</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.6707087599112651</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.6749104880248354</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.6791679653680441</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.6834123588596991</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.6875849867776925</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.6916369887245658</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.695528830492179</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.6992296851640413</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7027167265462859</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.7059743661062269</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.7089934600179407</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7117705086729346</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.714306867119046</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7166079813486356</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.718682662169284</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.7205424055518909</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.7222007658515008</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7236727861195303</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7249744878528407</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7261224209335989</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7271332731814172</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7280235378432323</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7288092364647391</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.729505693898895</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.730127361692104</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7306876857282332</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7311990137866845</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7316725385662248</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7321182717248135</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.7325450445717074</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.7329605312067872</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6741,132 @@
       <c r="E45" t="n">
         <v>0.6275633692865543</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6166039889419059</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6084253187590754</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6029024931698478</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.5998552888014479</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.599064528046358</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6002859251681193</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.603261617133676</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6077296110687809</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6134313870440383</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.6201178819541342</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.627554063723638</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.6355222864620279</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.6438245989622179</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.6522841620449966</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.6607459150314182</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.6690766179766365</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.6771643839363569</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.6849178041378007</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.6922647582183329</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.6991509914917116</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.705538531410258</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.7114040059922756</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.7167369180102529</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7215379202466592</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.7258171291875082</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7295925071991782</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7328883365654451</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.7357338027741378</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7381616991419313</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.740207260240152</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7419071276091497</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.7432984478888456</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7444181007069468</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.7453020514085221</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.7459848219338961</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7464990718084743</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7468752802511526</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7471415197916398</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.7473233114672467</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7474435516043122</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.7475225003385148</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7475778223542032</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +6884,132 @@
       <c r="E46" t="n">
         <v>-1.270376146250257</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.272707549707863</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.274634636449302</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.276293664008922</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.277801012644981</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.279254257244821</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.280733453945058</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.282302610181225</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.284011235649303</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.285895910216277</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.287981821269141</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.290284239225784</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.292809911747014</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.295558365909484</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.298523113580362</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.30169275906567</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.305052010323039</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.308582596135477</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.312264092059499</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.316074658023096</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.319991690397771</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.323992391358402</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.328054258455239</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.332155497576776</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.336275362863466</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.340394427599192</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.344494790608367</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.348560223169663</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.352576261876959</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.356530253199561</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.360411355694207</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.364210505890302</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.367920353807258</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.371535173877404</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.375050756754726</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.37846428710778</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.381774212045518</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.384980104328919</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.388082523999586</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.3910828815272</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.393983305056854</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.396786513837809</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.39949569944715</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7027,132 @@
       <c r="E47" t="n">
         <v>-0.9877264601960573</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.9907610947206819</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.993273491298833</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.9953841246114025</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.9971999843986957</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.9988146347899814</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.000308566723898</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.001749814836367</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.003194741467768</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.004688925012021</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-1.006268103280378</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.007959136589362</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.009780965711264</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1.011745547763667</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1.013858758756945</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.016121255327106</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-1.01852929059563</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.021075480541132</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-1.023749518104198</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-1.026538832766018</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-1.029429193751798</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1.03240525544303</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.035451044105616</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-1.038550385670167</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.041687275018807</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-1.044846188001541</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.04801233817827</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.051171881013949</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.054312068904644</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.057421360951596</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.060489491809876</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.063507504209716</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.066467749883026</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.06936386363375</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.072190715182361</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.07494434320964</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.077621875742067</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.080221440680157</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.082742069890679</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.085183599880862</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.087546571662456</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.089832132008346</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.092041937914531</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7170,132 @@
       <c r="E48" t="n">
         <v>-0.882011733608531</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8842178751945196</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8854223967629695</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8858457735065333</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8856866756696821</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.8851214782218289</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.8843043656523422</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.8833679301995556</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.8824241295612677</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.8815655031514437</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.8808665645813823</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8803853056256322</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.8801647608513657</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.8802345931767045</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.8806126691932543</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.8813065996403148</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.8823152254279533</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.8836300335088498</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.8852364900555463</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.8871152810856388</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.8892434530821213</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.8915954483933974</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.8941440323207808</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.896861110820166</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.8997184396409379</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.9026882274673211</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.9057436371801958</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.9088591906903897</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.9120110838856645</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.915177419072154</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.9183383628769153</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.9214762379216289</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.9245755566965806</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.9276230059832734</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.9306073899216145</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.9335195394238047</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.9363521951323547</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.9390998705333833</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.9417587011957902</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.9443262854365119</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.9468015210330949</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.9491844419351525</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.9514760582804215</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7313,132 @@
       <c r="E49" t="n">
         <v>-0.6469378381786196</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6478152317441521</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6480659891434111</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.6478495201859529</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6473079600291005</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.6465660016705358</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.6457311651402519</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6448944244209591</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.6441310904559957</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6435018736127014</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.6430540628285366</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6428227720415404</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.6428322152291718</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.6430969800559823</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.6436232769461726</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.6444101456877007</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6454506057662991</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6467327398281205</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6482407022404453</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6499556468664166</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6518565700391566</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.653921066406764</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.6561259968728287</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6584480692949672</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6608643339229016</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6633525967427795</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.6658917549268508</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.668462059450418</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.6710453106193898</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.6736249927472296</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.6761863545322329</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.6787164418244025</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6812040894506659</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.6836398786069281</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.6860160660471045</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.6883264909256324</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.6905664647037907</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.6927326490331699</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.6948229260017832</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.6968362645873752</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.6987725866236928</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.7006326350614752</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.7024178468067948</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7456,132 @@
       <c r="E50" t="n">
         <v>-0.05138977039969653</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.05251022801228211</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.05356112092573905</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.05456476718962741</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.05554092745660615</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.05650662971829891</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.05747609247982149</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.05846076051617714</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.05946942340976463</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.06050839606786807</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.06158174120748681</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.06269151706819626</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.06383803672323185</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.06502012840556656</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.06623538896343846</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.06748042482802172</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.06875107669317956</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.07004262550856592</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.0713499784357364</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.07266783418548772</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.07399082771342393</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.07531365465937606</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.07663117622086668</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.07793850538388061</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.0792310756166352</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.08050469327577274</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.0817555750851833</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.08298037212773875</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.0841761818401402</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.08534054952121713</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.08647146085526439</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.08756732691620391</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.08862696305827648</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.08964956301818114</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.09063466945613868</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.09158214205355411</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.09249212416703005</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.09336500891640273</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.09420140546179484</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.09500210610445602</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.09576805473088587</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.09650031701136531</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.09720005266398821</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7599,132 @@
       <c r="E51" t="n">
         <v>-0.8728334316915233</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8747762895753882</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8758071717247633</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.876096702312817</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.8758054798064761</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.8750817690327641</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8740600105149718</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8728599911687326</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8715865407266166</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8703296389246234</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.8691648392049621</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8681539322310107</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8673457871339407</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8667773201728687</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8664745497292817</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.8664537037044707</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8667223509199443</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8672805324850961</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8681218726783895</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8692346519861975</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.8706028277648048</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8722069906609201</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.8740252475021048</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.8760340238592266</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.8782087818653934</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.8805246511109099</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.8829569724786495</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.8854817566005985</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.8880760601755318</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.8907182846732167</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.893388402958005</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.8960681201011114</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.8987409751325213</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.9013923907335918</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.9040096779178339</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.9065820026205114</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.9091003208486881</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.9115572886625464</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.91394715279476</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.9162656271934664</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.9185097602189276</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.9206777966540973</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.9227690381215665</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7742,132 @@
       <c r="E52" t="n">
         <v>-0.8728334316915233</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8747762895753882</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.8758071717247633</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.876096702312817</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.8758054798064761</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.8750817690327641</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8740600105149718</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8728599911687326</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8715865407266166</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8703296389246234</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.8691648392049621</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8681539322310107</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8673457871339407</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.8667773201728687</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8664745497292817</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8664537037044707</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8667223509199443</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8672805324850961</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8681218726783895</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8692346519861975</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8706028277648048</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8722069906609201</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.8740252475021048</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.8760340238592266</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.8782087818653934</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.8805246511109099</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.8829569724786495</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.8854817566005985</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.8880760601755318</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.8907182846732167</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.893388402958005</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.8960681201011114</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.8987409751325213</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.9013923907335918</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.9040096779178339</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.9065820026205114</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.9091003208486881</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.9115572886625464</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.91394715279476</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.9162656271934664</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.9185097602189276</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.9206777966540973</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.9227690381215665</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +7885,132 @@
       <c r="E53" t="n">
         <v>-1.117170262062101</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.123923874394853</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.129032859859351</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.132803465104765</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.135511071577036</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.137400446696973</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.138686561926425</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.139555859392688</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.14016782937422</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.140656796362876</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.141133833367273</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.141688743524147</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.142392063000676</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.143297050495458</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.144441636916243</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.145850314719035</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.147535950582256</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.149501508132676</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.151741669796557</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.154244348858207</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.156992084690843</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.159963316003202</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.163133528863602</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.166476278209708</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.169964083482508</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.173569200876461</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.177264276412271</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.181022885559475</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.184819966421176</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.18863215451641</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.192438027945713</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.196218272205505</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.199955774141266</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.203635654521512</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.207245248503501</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.210774042879953</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.214213578477898</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.217557325459096</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.220800538577905</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.22394009871536</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.226974346252661</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.229902911094692</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.232726543422015</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8028,132 @@
       <c r="E54" t="n">
         <v>-0.1856364202921095</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1845591385117719</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.1833771515550555</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.1821561957272498</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1809540787050411</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1798203471546926</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1787962503179412</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1779149480712042</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1772019050636712</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1766754211476369</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1763472552774487</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1762233071808499</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1763043276212175</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.1765866338934523</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1770628122371419</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.1777223931142612</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1785524888425072</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.1795383859896622</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1806640873207566</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1819128000464509</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.1832673687334541</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.1847106525745179</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.1862258478279274</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.1877967571605526</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.1894080083886091</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.191045225722203</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.1926951570943659</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.1943457615012685</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.1959862605058025</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.1976071581707738</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.1992002337008492</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.2007585109958179</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.2022762091644151</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.2037486778313278</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.2051723208035509</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.2065445113591625</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.2078635020941985</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.209128331922879</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.2103387324828903</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.2114950358592244</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.2125980852142023</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.2136491496032578</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.2146498439700009</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8171,132 @@
       <c r="E55" t="n">
         <v>-1.00640717513877</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.009056411560483</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.011304242453456</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.013257949562234</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.015011790155411</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.01664714816076</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.018232969400579</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.019826444015393</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.021473839870898</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.023211425203292</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1.025066432164176</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.027058026977704</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1.029198262940852</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.031493000553864</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1.033942784826299</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.036543673700538</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-1.039288013994172</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-1.042165162702883</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.045162152292882</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.048264299043245</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.051455753791402</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.054719994731841</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.058040262294967</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.061399936614819</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.064782858669211</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.068173596810071</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.071557661051475</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.074921668103577</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.07825346069306</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.08154218516495</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.084778331697084</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.087953741668212</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.09106158680385</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.094096324688314</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.097053635090058</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.099930341317215</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.102724320519585</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.105434406501052</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.108060288220418</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.110602406755425</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.11306185309841</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.115440268754545</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.117739750734494</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8314,132 @@
       <c r="E56" t="n">
         <v>-0.880515908083096</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8797313563733955</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.8796287720748461</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.8801261964067999</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.8811483677616212</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.8826261724647265</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.8844961749794562</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.886700273798347</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.8891854245684694</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.8919034015297651</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.8948105736173748</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8978676806998598</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.9010396020701805</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.904295114556626</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.9076066412748853</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.9109499942890836</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.9143041155114215</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.91765082032846</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.9209745479839758</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.9242621219359672</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.927502522454694</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.9306866727995384</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.9338072395086602</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.9368584467109793</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.9398359039394387</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.9427364466744544</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9455579887464908</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9482993857386175</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9509603086148172</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.9535411269227575</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9560428010525004</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.9584667831546455</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.960814926419653</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9630894024881853</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.965292626799008</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.967427191688901</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.9694958070431722</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9715012482619182</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9734463112626411</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9753337741903152</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.9771663654567787</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9789467376865908</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9806774471093335</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8457,132 @@
       <c r="E57" t="n">
         <v>-0.9128283890358414</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9046979963672953</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.8983196720308354</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.8936874973124243</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.8907497622207839</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.8894191966782652</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.8895819721928721</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.8911055119931615</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.8938451819329171</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.8976499465454134</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.902367079594712</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9078460186803929</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.9139414512676695</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.9205157160923438</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.9274405998936677</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.93459860515282</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.9418837600645656</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.9492020373648313</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-0.9564714438800933</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-0.9636218377726693</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-0.9705945254704128</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-0.9773416852512994</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-0.9838256594756084</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-0.9900181525943531</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-0.9958993673787413</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-1.001457107365851</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-1.006685869340025</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-1.011585945793243</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-1.016162553744011</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-1.020425003046747</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-1.0243859143885</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-1.028060494539397</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-1.031465874086404</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-1.034620510824978</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-1.037543660196801</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.040254912630951</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-1.042773796356526</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-1.045119443192819</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.047310313973265</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.049363979605853</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.051296953298591</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.053124569166507</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.05486090226854</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8600,132 @@
       <c r="E58" t="n">
         <v>-1.091382061906856</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.076978296112858</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.065277525043669</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.056160705865707</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.049473416343457</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.045035273963172</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.042648228293582</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.042103722042375</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.043188787752906</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.0456911537524</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.049403441149937</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.054126535121556</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.059672212902868</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.06586510869235</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.072544092780763</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.079563138912179</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.086791750228529</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.094115010157683</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.10143332028009</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.108661882584106</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.115729978661465</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.122580093392623</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.129166925628664</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.135456323392166</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.141424176282415</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.147055293152067</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.152342288775074</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.15728449918366</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.16188694163409</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.166159331773664</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.170115167523168</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.173770886452568</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.177145101002592</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.180257913778732</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.183130313303934</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.185783649047906</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.188239183240355</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.19051771590718</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.19263927872679</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.194622892671087</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.196486383954152</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.198246252542354</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.199917587362704</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8743,132 @@
       <c r="E59" t="n">
         <v>-0.8274286653893775</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8182461018737784</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.8100715918173104</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.8029537933339139</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.7969135766366728</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.7919479149655515</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.7880336717116236</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.7851311744260189</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.7831875402653267</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.7821397219694997</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.7819172597668663</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7824447341129304</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.7836439217541745</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.7854356631986932</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.787741453888988</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.7904847744794474</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.7935921778315727</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.7969941518044761</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.8006257777616774</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.8044272050474146</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.8083439616049545</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.8123271205027882</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.8163333414769851</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.8203248057511578</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.8242690614087651</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.8281387955038807</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.831911547934944</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.83556938089348</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.8390985164539024</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.8424889536063482</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8457340747659362</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.8488302505326047</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8517764502394382</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8545738646280123</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8572255458401263</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.859736068828977</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8621112172806313</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8643576962078759</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.8664828725403819</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8684945442923333</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.8704007382435009</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8722095355220215</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8739289240245796</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +8886,132 @@
       <c r="E60" t="n">
         <v>-0.4641257213202823</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4502486961889328</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4384412693530785</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4286331128007265</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4207262857609257</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4146016465811224</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4101246570167397</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4071504815307863</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4055284232533495</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4051057302669254</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4057308142364144</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4072559241713778</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.4095393184844606</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.412446978284966</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4158539045555508</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4196450415051227</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4237158678935113</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4279726973618751</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.432332727679967</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4367238772868199</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.4410844455553776</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.4453626308965923</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4495159382059158</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4535105043308782</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4573203672912969</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4609267019963477</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4643170422467796</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4674845059441627</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.4704270376967092</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4731466804452056</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4756488853547564</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4779418670418951</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.480036009239207</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.4819433242431316</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4836769679434447</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.485250810890602</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4866790647127792</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.4879759622392168</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4891554889098084</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.4902311624407588</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.491215857259321</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.4921216699029674</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4929598213850352</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9029,132 @@
       <c r="E61" t="n">
         <v>0.375162052945117</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3769759854509882</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3786708863991629</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3802230390094337</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3816157660563964</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3828386315238596</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3838866684913371</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3847596356831947</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3854613000473713</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3859987482542447</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.3863817321752616</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3866220545419591</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3867330010055028</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3867288240484985</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3866242828974395</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3864342419885588</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3861733288529701</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3858556506657895</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3854945672599873</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3851025172085198</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3846908926610224</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3842699579882687</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3838488069217442</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3834353527460344</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3830363461696539</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3826574157240192</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.382303125880161</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3819770484915484</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3816818436370806</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3814193464243615</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.381190656798885</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3809962298738884</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3808359647371592</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3807092900975935</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.380615245501582</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.3805525571754955</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3805197078357299</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3805150000532895</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3805366129680074</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3805826523210178</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3806511939161356</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.3807403207345521</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.3808481540159125</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9172,132 @@
       <c r="E62" t="n">
         <v>-1.177549175598831</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.165253306121947</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.155490946028774</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.148193009045224</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.143243025202907</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.140488573989515</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.139751361278461</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.140835949201526</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.14353720980874</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.147646595515585</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.152957326123269</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.159268593646191</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.166388884480109</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.174138515238289</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.182351474587145</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.190876658957925</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.199578585207627</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.208337658179721</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.217050065693365</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.225627367812229</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.233995841384647</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.242095634901849</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.249879782796362</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.257313122500639</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.264371151995962</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.271038860274377</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.277309558162296</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.283183732344886</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.288667941200774</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.29377376721007</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.298516837229815</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.302915918828909</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.306992098125547</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.310768042158917</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.314267346737529</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.317513968922715</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.320531741810899</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.323343968054893</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.325973087594429</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.328440414330292</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.330765935954425</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.332968170819173</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.335064075570489</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9315,132 @@
       <c r="E63" t="n">
         <v>-0.693795328414114</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6731383988869475</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6542897964720876</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6372923767839567</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.6221555726099361</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.6088592600964324</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.5973578558751188</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.5875843384428892</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.5794541401268243</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5728688381615948</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.5677196009765888</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5638903577503103</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5612606702436456</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.5597082945957204</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.559111428250867</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.5593506436807613</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5603105162028388</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.5618809579956652</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.5639582743716626</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5664459614906207</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.5692552670082629</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5723055367015002</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.5755243709647414</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5788476153118882</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.5822192087346196</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.5855909130475793</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5889219452791068</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.592178533819508</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.595333417486835</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.5983653049740919</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.6012583103554501</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.604001378499307</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.6065877124035512</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.609014212668286</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.6112809375833915</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.6133905906576187</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.6153480408726385</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.6171598795252173</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.6188340162346226</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.6203793155474737</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.62180527457155</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.6231217412130852</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.624338671875163</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9458,132 @@
       <c r="E64" t="n">
         <v>-0.8878127709605638</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8798018737989517</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.8719727752817235</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8646162636374827</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.8579519868182146</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.8521376834849848</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.8472779500862435</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8434323536007632</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.8406228641477717</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8388405971859344</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.8380518771956026</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8382036451257229</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.8392282386795511</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.8410475784747566</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.8435767955230998</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.8467273369416989</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.8504095876926004</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.8545350466166695</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.859018095146706</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.8637773968696471</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.8687369655611404</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.873826938443646</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.8789840902381872</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.8841521221176133</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.8892817579618981</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.894330678404701</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.8992633210878898</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.9040505733491009</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.9086693812966481</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.9131022969134173</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.9173369825110318</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.9213656895588933</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.9251847266681712</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.9287939293441801</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.9321961420546023</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.9353967212154426</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.9384030658878086</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.9412241813194842</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.9438702789649417</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.9463524152813925</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.9486821704284988</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.9508713669938109</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.9529318280201722</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9601,132 @@
       <c r="E65" t="n">
         <v>-0.0800329769862875</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.0671641619821195</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.05625249184889678</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.04718528694583964</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.03983680840910665</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.0340721682230091</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.02975085919206504</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.02672985251510066</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.02486628793964828</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.02401977594805736</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.02405433432876679</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.0248399811047594</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.0262540060014025</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.02818194318678028</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.03051826895601686</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.03316684912523352</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.03604116191227627</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.03906432280052434</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.04216893816551526</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.04529681422086743</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.04839854710429116</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.05143301872047099</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.05436682136186428</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.05717363223387939</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.05983355691366955</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.06233245856227856</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.06466128746708077</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.06681542328047584</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.06879404019244999</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.07059950326655397</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.07223680230726012</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.07371302792833431</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.07503689296605193</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.07621830103126571</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.07726796281946451</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.07819705979362516</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.07901695401383334</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.07973894220130728</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.08037405158207736</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.08093287464551707</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.08142543966277221</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.0818611136270295</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.08224853418846752</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9744,132 @@
       <c r="E66" t="n">
         <v>-0.7542898182670131</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.741062549737508</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7309959010971108</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.723835863550787</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.7193114670528673</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.7171430297008058</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.7170492127915139</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7187528775793848</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.7219858520098132</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.7264927106288965</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.7320336712305487</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7383867071475202</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.745348969026334</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.7527376047411667</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.7603900611061221</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.7681639461508434</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.7759365257804861</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.783603923509526</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.7910800865668278</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.7982955760178722</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.8051962327022278</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.8117417648440854</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.8179042972825834</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.8236669165071826</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.8290222401770824</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.8339710346361264</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.8385208991644867</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.842685031370988</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.8464810842402893</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8499301219066648</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.853055678218724</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8558829195674664</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8584379112493067</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.8607469847996913</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.8628362022339694</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8647309119426695</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8664553900806891</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8680325606370061</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.869483786946565</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8708287271826877</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8720852463208639</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.8732693771678828</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8743953232796682</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +9886,132 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7152263178727271</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6992041597207869</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.6876740924832786</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6801331794059736</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6760895452905707</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6750692188705341</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6766215481012375</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6803233426155645</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.6857818822103969</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.6926369282522286</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7005618640247204</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7092640808993839</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7184847186758677</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7279978610360692</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.737609280432864</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7471548204839045</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7564984976806206</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7655303976990582</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7741644347060648</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7823360348147983</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7899997973732015</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7971271802349919</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8037042477469893</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8097295130593321</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8152118996673433</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8201688409297031</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8246245307434843</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8286083336248442</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8321533581491308</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8352951940292607</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8380708100254577</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8405176073428886</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8426726211416555</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8445718612096985</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8462497816870304</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8477388689343505</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8490693361670798</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.85026891328582</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8513627203867224</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8523732136928805</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8533201930752631</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.854220860895711</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8550899225742283</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_10.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_10.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3196435793119958</v>
+        <v>-0.2103977471099733</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3262056301079485</v>
+        <v>-0.3051268707526743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2130065476006842</v>
+        <v>-0.4647572337589958</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1973430043990916</v>
+        <v>-0.3974561397256904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1524408260306425</v>
+        <v>-0.5420458476225329</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1302510715930824</v>
+        <v>-0.4774627561395389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.05850261661895749</v>
+        <v>-0.2020935448562471</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08662491400362807</v>
+        <v>-0.241371250993697</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1392781044782666</v>
+        <v>-0.1988301985982694</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1267911413067892</v>
+        <v>-0.1807974864889489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4439761727888896</v>
+        <v>-0.2383226232223296</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4622718219935082</v>
+        <v>-0.2892530252971715</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3042368681041213</v>
+        <v>-0.479677295720217</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2721202125849562</v>
+        <v>-0.414986518278334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4096951266053405</v>
+        <v>-0.6423532367101999</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4215539029919932</v>
+        <v>-0.5017630512574407</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3104530236142112</v>
+        <v>-0.4975737005612251</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3433447984396565</v>
+        <v>-0.2802299313223474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2094122046193624</v>
+        <v>-0.2691207381554653</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2487543778038808</v>
+        <v>-0.2961359379524409</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1092472936749555</v>
+        <v>-0.2204045929313549</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1097844704537383</v>
+        <v>-0.2012800297013035</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.001961338101021881</v>
+        <v>-0.1018331133741392</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.01171595900957665</v>
+        <v>-0.08547658697900877</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.005838783256990734</v>
+        <v>-0.2709067696138323</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01149504879265671</v>
+        <v>-0.2243252943307559</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1346076660286505</v>
+        <v>-0.06910856589356343</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.05819741262321203</v>
+        <v>-0.02463965958345737</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1951720505124546</v>
+        <v>-0.2385271655087465</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2858159185328134</v>
+        <v>-0.0995548935257257</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5370164443025195</v>
+        <v>0.003973537876794532</v>
       </c>
       <c r="B17" t="n">
-        <v>0.563124343860992</v>
+        <v>0.1244900861441573</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.07606227590916192</v>
+        <v>0.02150724881991195</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05151022774580531</v>
+        <v>0.05279657228616021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3871347601157085</v>
+        <v>0.05510132201968172</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3801050985279987</v>
+        <v>0.1004400509282022</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1741416729645838</v>
+        <v>-0.1575318625013999</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2354360921909205</v>
+        <v>-0.09097624358877618</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3652836290686644</v>
+        <v>-0.03319693324335826</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4604852122243949</v>
+        <v>0.03147393684190031</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3064395748100527</v>
+        <v>-0.07163056772763338</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3407563088633724</v>
+        <v>0.07302722220851199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1063648293476759</v>
+        <v>0.02687111395900857</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.09244117645539568</v>
+        <v>0.02539431603911637</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.409713341919858</v>
+        <v>0.8395935783534152</v>
       </c>
       <c r="B24" t="n">
-        <v>4.537685292080264</v>
+        <v>0.6764159873527081</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5608831722374112</v>
+        <v>0.1298358672208684</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5276714520015621</v>
+        <v>0.1100388389983356</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3363488731712246</v>
+        <v>0.1838494099857298</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3865084971551981</v>
+        <v>0.1536557422819028</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.346798293593072</v>
+        <v>0.1310435795481181</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3347112899583037</v>
+        <v>0.1346133361584621</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.083970905984162</v>
+        <v>0.3703360383785936</v>
       </c>
       <c r="B28" t="n">
-        <v>1.101682590302006</v>
+        <v>0.2314731374672672</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.285050208351628</v>
+        <v>0.6984110970134783</v>
       </c>
       <c r="B29" t="n">
-        <v>5.880675973654099</v>
+        <v>0.5849379420876908</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.05354695070231</v>
+        <v>0.2505934258380249</v>
       </c>
       <c r="B30" t="n">
-        <v>1.026257237776456</v>
+        <v>0.2025572122821401</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.07644150572777364</v>
+        <v>0.08202811042531011</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.132021831180891</v>
+        <v>0.0652986017292802</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.835820547463844</v>
+        <v>0.2320925800028873</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8160840418720325</v>
+        <v>0.2164869098289154</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9373134557821473</v>
+        <v>0.1518265953666065</v>
       </c>
       <c r="B33" t="n">
-        <v>0.943321890479472</v>
+        <v>0.1599713753107591</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.5767574969448431</v>
+        <v>0.1094245586281686</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6225044766211654</v>
+        <v>0.07668897726859338</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8423559946706979</v>
+        <v>0.4042957538170733</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8227091330419488</v>
+        <v>0.2904597654567493</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8029102190592571</v>
+        <v>0.2842324891237176</v>
       </c>
       <c r="B36" t="n">
-        <v>0.785324575538821</v>
+        <v>0.1613062843236384</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7918968820532399</v>
+        <v>-0.02671313311160461</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7616482074449005</v>
+        <v>-0.01921542017419373</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7840273217834347</v>
+        <v>0.3607894319027811</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7368169998210876</v>
+        <v>0.3034417197658699</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.5857646904789711</v>
+        <v>-0.1124807735437134</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5852317773954258</v>
+        <v>-0.1498292724577766</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7548829027362437</v>
+        <v>0.1492292611282714</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7552084469826726</v>
+        <v>0.183457992883758</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5827042941593981</v>
+        <v>-0.1645398281152756</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5626100458938021</v>
+        <v>-0.2194875342870689</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7531292212847652</v>
+        <v>0.2819136431339014</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7179076915742605</v>
+        <v>0.2764821163800744</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7505739106901089</v>
+        <v>0.1166719301517765</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7241739736172695</v>
+        <v>0.1570997822562603</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6826875378525141</v>
+        <v>0.03903648804324042</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6829084950922456</v>
+        <v>-0.03261894322829163</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6806623429070084</v>
+        <v>-0.1207317465490824</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6770882469038987</v>
+        <v>-0.07712475407900811</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.246033568492073</v>
+        <v>-0.172434941020288</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.259294341841793</v>
+        <v>-0.1607961516556028</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.9621744951716042</v>
+        <v>-0.1679883498925968</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9741234816865039</v>
+        <v>-0.1598627741767813</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8528148357393723</v>
+        <v>-0.2209854448837378</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8669027100444782</v>
+        <v>-0.1935945540093548</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6255537795352007</v>
+        <v>-0.2234889888131208</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6387071340702309</v>
+        <v>-0.1933404368588273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.04851057851748377</v>
+        <v>-0.1022061371806729</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04734612250935647</v>
+        <v>-0.1135780396913113</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8439596336078585</v>
+        <v>-0.2278083440056071</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8597814277296713</v>
+        <v>-0.2170910917395659</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.8439596336078585</v>
+        <v>-0.2278083440056071</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8597814277296713</v>
+        <v>-0.2170910917395659</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.059576895117559</v>
+        <v>-0.1952448759629271</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.083552313285897</v>
+        <v>-0.1756372678191264</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1867859905688818</v>
+        <v>-0.2180694839001492</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1874860143018053</v>
+        <v>-0.1926282370764213</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.984780273914867</v>
+        <v>-0.1552409275042511</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9947846777069013</v>
+        <v>-0.1361822745476835</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.8986337458712885</v>
+        <v>-0.1175524768941751</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8878718671948455</v>
+        <v>-0.1160085596124987</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9841332714965433</v>
+        <v>-0.1837436120102373</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9468508169596056</v>
+        <v>-0.1421331029364994</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.199317411903744</v>
+        <v>-0.1467449462786686</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.15126224138174</v>
+        <v>-0.1967644572964131</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8879527200678812</v>
+        <v>-0.2224792430287997</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8600764908849532</v>
+        <v>-0.2299764227862012</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.5491955170664152</v>
+        <v>-0.2531512652069413</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5183189354500672</v>
+        <v>-0.24948062307687</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3641454521994543</v>
+        <v>-0.2679013037651269</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3693746975788355</v>
+        <v>-0.2248580835488676</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.281533038769507</v>
+        <v>-0.1498573848783344</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.229297507291419</v>
+        <v>-0.09214075319993889</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.7974107152600491</v>
+        <v>-0.4712532092516</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7657356006018912</v>
+        <v>-0.4407478773075003</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9064245938398733</v>
+        <v>-0.2960589708242725</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9088214832527715</v>
+        <v>-0.2749834954519098</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.1681597130261747</v>
+        <v>-0.2482426222997058</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1312481098718712</v>
+        <v>-0.2384391553372095</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.8694538336306682</v>
+        <v>-0.1047743062095829</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8149438709111899</v>
+        <v>-0.08620917232219795</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.8879584950286437</v>
+        <v>0.01947647773925388</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7951699883843418</v>
+        <v>-0.01456983493393927</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_10.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.2103977471099733</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3051268707526743</v>
+        <v>-21.36690572887655</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1415.981634250835</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-87021.43006355382</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4677357.596995582</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-236105803.2775219</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-15022117542.00335</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-854535007340.9446</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-46368560787328.31</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2218067347871732</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-8.310138110045506e+16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.600405457591036e+18</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.730207367463096e+19</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.576085569012461e+22</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.657805649451735e+24</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.413990823328682e+26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.070024763901913e+28</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.673074783324702e+29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.47207012073601e+31</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.4647572337589958</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3974561397256904</v>
+        <v>-44.0434207405675</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-4352.930284860224</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-383589.9476719957</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-27559091.03394589</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1995667326.252738</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-189873662540.646</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-15622310602561.58</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1203846597346170</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-7.552048505266392e+16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-2.047114585391645e+18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.492662310444872e+20</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.051616372601379e+22</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.197324194870324e+25</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.595233346628528e+27</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.938961147287167e+29</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.191591397765959e+31</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.387327689304645e+33</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.596817749271242e+35</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-0.5420458476225329</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4774627561395389</v>
+        <v>-38.72558289079431</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3416.041145457068</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-268641.0698735173</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-19129763.61704662</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1538329422.28971</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-138474546980.0705</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-11328136661764.29</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-906801286155134.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-6.903014255241568e+16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-4.851522633838253e+18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-3.202336971194087e+20</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-2.103878540151588e+22</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1.354042124137837e+24</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-7.622234329624693e+25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-3.809072721694538e+27</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-1.980113095390733e+29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-1.225376128285586e+31</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-6.453620851553178e+32</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.2020935448562471</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.241371250993697</v>
+        <v>-19.46928023875709</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1966.635510357851</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-165384.7319248915</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-12532784.54710537</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1114998138.734236</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-114102382029.1267</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-9958675680828.383</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-781502624119797.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-5.354451977491896e+16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-3.021879825258346e+18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1.14541173392788e+20</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.393155277875734e+20</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9.097622563991167e+23</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.523272660744912e+26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.865104821432181e+28</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.952057808953619e+30</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.908131497293265e+32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.855232988494367e+34</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>-0.1988301985982694</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1807974864889489</v>
+        <v>-8.335484289956728</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-415.1236879379816</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-13955.38034123252</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1530772.44671019</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-28052209.64672288</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-22744915536.27825</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-3062852632616.58</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-264123181588972.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1.377513353124183e+16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.317704059349555e+16</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.701825303119055e+20</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.277752422841706e+22</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.65687486407151e+24</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.856205051569345e+26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.682731400288691e+28</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.073434864588541e+30</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7.213716472894339e+32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7.345758189478431e+34</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.2383226232223296</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2892530252971715</v>
+        <v>-15.88400224881526</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-962.300981018047</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-54582.45062815741</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2807456.506658848</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-162370559.6970484</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-11407329808.40238</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-668814896463.7162</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-34692680883799.38</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1570078991506142</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-5.721513265490929e+16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-1.289383033710322e+18</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.214744387529897e+19</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.218307431066027e+21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.619866189779729e+23</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.419222843878136e+25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.869328292504424e+27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.601958919782051e+29</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.738077004834766e+31</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +851,58 @@
         <v>-0.479677295720217</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.414986518278334</v>
+        <v>-34.83025909161233</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2254.23992557455</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-145259.5073970566</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-8143985.584227173</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-499572945.2647128</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-35338865859.05585</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-2300961216805.688</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-151829324370538.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-9429716059896152</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-5.181054287605399e+17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-2.491909695427436e+19</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1.088374819149795e+21</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-3.557819147071258e+22</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9.25261918571407e+23</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.124243431681455e+26</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.80019302701274e+28</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3.79002645873461e+30</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.602329954605588e+32</v>
       </c>
     </row>
     <row r="9">
@@ -502,7 +910,58 @@
         <v>-0.6423532367101999</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5017630512574407</v>
+        <v>-26.18960611708589</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1669.450723029073</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-99466.4432580243</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-5297940.246254308</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-290562150.0646476</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-18566869634.4524</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1055624470830.604</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-57357641744746.45</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-2804558568632258</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-1.10686744499092e+17</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-2.632293440922265e+18</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.934622392436641e+19</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.783356235187535e+22</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.001784016703583e+24</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.747728915133783e+26</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.333134913039144e+28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9.575534947706153e+29</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.839689942684594e+31</v>
       </c>
     </row>
     <row r="10">
@@ -510,7 +969,58 @@
         <v>-0.4975737005612251</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2802299313223474</v>
+        <v>-56.74645344975431</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6620.657262648785</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-705821.2232988604</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-57979171.26068708</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4664901976.1401</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-511527396730.5692</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-51637121539157.78</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-5202595306391505</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-4.987423651040047e+17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-4.32446213353779e+19</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-3.300723375391667e+21</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-2.121828214374809e+23</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-7.388155878311584e+24</v>
+      </c>
+      <c r="O10" t="n">
+        <v>9.93505969449209e+26</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.674734564591926e+29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.889964748463703e+31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.681780396675842e+33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5.549438289667972e+35</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +1028,58 @@
         <v>-0.2691207381554653</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2961359379524409</v>
+        <v>-18.23746080884181</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1257.333811125541</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-76201.96701440195</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-4127077.02461075</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-252604081.20834</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-18301418966.71361</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1136456669813.298</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-64003320875889.89</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-3211671997776731</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1.358777721478477e+17</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-4.406942278307072e+18</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-7.827241839307968e+19</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.287258557009547e+21</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.004328770710346e+24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.00831291654538e+26</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>8.169596734648572e+27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6.088323840649332e+29</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.485746695990573e+31</v>
       </c>
     </row>
     <row r="12">
@@ -526,7 +1087,58 @@
         <v>-0.2204045929313549</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2012800297013035</v>
+        <v>-21.53601584174541</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1498.605763183168</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-90691.13468711908</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-4581976.532446463</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-255075335.0663086</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-17738479151.93511</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1060701458489.629</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-57508666209396.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-2642452787959092</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-8.542080237472683e+16</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.090588736518554e+16</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.085416122778491e+20</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.715193946645916e+22</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.511842948092958e+24</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.872645534097964e+26</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.130457586615563e+28</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.507379178846436e+30</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.063751693171489e+32</v>
       </c>
     </row>
     <row r="13">
@@ -534,7 +1146,58 @@
         <v>-0.1018331133741392</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.08547658697900877</v>
+        <v>-1.953473153094727</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-514.7155201749422</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-50760.63250984615</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5158463.036033694</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-519599550.2576905</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-46069532796.65919</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-3378175042162.458</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-223392942244901.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1.317058597773997e+16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-6.392722085056817e+17</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-2.130922194166536e+19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1.523334886702396e+19</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.561006688079873e+22</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.476937414256445e+25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.620355118357707e+27</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.515819387847383e+29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.327016753666055e+31</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.152686059276464e+33</v>
       </c>
     </row>
     <row r="14">
@@ -542,7 +1205,58 @@
         <v>-0.2709067696138323</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2243252943307559</v>
+        <v>-16.07361827860576</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1011.92128640381</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-60861.45791748938</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3361879.112253303</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-185255391.0235153</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-10567904831.14986</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-509013299768.561</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-22908791441819.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-893382913237504.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-1.851255577183787e+16</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.192638435537513e+18</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.091167147458177e+20</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.07580683451413e+22</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.733045783480615e+24</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.27948216935095e+26</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>8.631490774727565e+27</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5.562509955849115e+29</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.57656081762602e+31</v>
       </c>
     </row>
     <row r="15">
@@ -550,7 +1264,58 @@
         <v>-0.06910856589356343</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.02463965958345737</v>
+        <v>-6.805051996458339</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-397.9032638235036</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-21337.35570853703</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1087062.511746176</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-53241943.25483447</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-2556754807.918553</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-101068228280.8142</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-3560664854844.585</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-99569841159001.12</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-725568753038559</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.688911458441096e+17</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.72448562787463e+19</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.242664426292728e+21</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7.907983998690714e+22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.556193809714923e+24</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.432061377561405e+26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.248888985629105e+28</v>
+      </c>
+      <c r="S15" t="n">
+        <v>6.402890887955045e+29</v>
       </c>
     </row>
     <row r="16">
@@ -558,7 +1323,58 @@
         <v>-0.2385271655087465</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0995548935257257</v>
+        <v>-10.57769502806991</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-552.8281123613373</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-26637.38457405618</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1202299.022528662</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-51253450.45183357</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-2060126171.186126</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-74680216571.93279</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-2721855364276.878</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-88890628980107.48</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-2011850713586613</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.153439933942107e+16</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6.941924347570131e+18</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.149239644784402e+20</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4.176558850801188e+22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.417843289510229e+24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.252455425833225e+26</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6.126774408262751e+27</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.985552188014213e+29</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +1382,58 @@
         <v>0.003973537876794532</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1244900861441573</v>
+        <v>-2.00120252412195</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-147.7066985457907</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-6101.464586209752</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-152289.8836338627</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3101374.28813834</v>
+      </c>
+      <c r="G17" t="n">
+        <v>473510622.8698898</v>
+      </c>
+      <c r="H17" t="n">
+        <v>41713545604.9709</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2652755039314.876</v>
+      </c>
+      <c r="J17" t="n">
+        <v>149001632649018.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8004596964449426</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.134452330291501e+17</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.061417295461174e+19</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.001960913259702e+21</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4.827071714501749e+22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.310487527019546e+24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.101735421962824e+26</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5.254192998017425e+27</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.509979918946525e+29</v>
       </c>
     </row>
     <row r="18">
@@ -574,7 +1441,58 @@
         <v>0.02150724881991195</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05279657228616021</v>
+        <v>0.5342178575825913</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-194.6264868758841</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-17236.97948362618</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1102375.463332566</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-36789784.89271691</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1393160608.370152</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16829488158.77745</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6454625287161.223</v>
+      </c>
+      <c r="J18" t="n">
+        <v>678037984265465.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.724056136133174e+16</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.172457742740177e+18</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.711555342383717e+20</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.662441093204023e+22</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.013391773206205e+24</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6.160164191506359e+25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.741308690223553e+27</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.277030445071257e+29</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.388978812276633e+31</v>
       </c>
     </row>
     <row r="19">
@@ -582,7 +1500,58 @@
         <v>0.05510132201968172</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1004400509282022</v>
+        <v>5.40592626792083</v>
+      </c>
+      <c r="C19" t="n">
+        <v>60.61787746759872</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-2910.225953838128</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-472173.7057467503</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-46042021.14429779</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-3824029198.494044</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-224057539496.4461</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-10276178637990.12</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-355395095100995.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-5772375523993352</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.426656205080338e+17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5.934229921139415e+19</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.891699869612039e+21</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3.555191524726293e+23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.335969966125881e+25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.418364327722318e+27</v>
+      </c>
+      <c r="R19" t="n">
+        <v>8.274023061428143e+28</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.818116047565899e+30</v>
       </c>
     </row>
     <row r="20">
@@ -590,7 +1559,58 @@
         <v>-0.1575318625013999</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.09097624358877618</v>
+        <v>-9.505353252615404</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-418.1876202782212</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-18308.78939725374</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-818052.5464547469</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-33994224.76248985</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1285858716.573246</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-40372298835.18384</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1231547028856.234</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-34819659004204.27</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-570787163014428.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.01531104035962e+16</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.876443105505195e+18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.103233554941626e+20</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.264034010754855e+22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6.649654155529518e+23</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.175516237877394e+25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.443637015993177e+27</v>
+      </c>
+      <c r="S20" t="n">
+        <v>6.54526667911984e+28</v>
       </c>
     </row>
     <row r="21">
@@ -598,7 +1618,58 @@
         <v>-0.03319693324335826</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03147393684190031</v>
+        <v>-14.14237097671552</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-922.4983795271532</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-55171.82583448519</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2957004.748142408</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-170043318.7240935</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-8945837354.501604</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-444168808318.8397</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-23249554017633.73</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1171650294101110</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-5.226900772482729e+16</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-1.654855038475256e+18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.574870724223702e+19</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.750121894356399e+21</v>
+      </c>
+      <c r="O21" t="n">
+        <v>9.791485427924973e+23</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7.933551891371198e+25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5.401714796157435e+27</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.377884919319419e+29</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.097058939550455e+31</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +1677,58 @@
         <v>-0.07163056772763338</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07302722220851199</v>
+        <v>-2.356144365449267</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-178.3865616078664</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-9828.767845530496</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-467230.5874013819</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-19113210.94992467</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-297662418.8000448</v>
+      </c>
+      <c r="H22" t="n">
+        <v>83840324415.33043</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10795499294349.79</v>
+      </c>
+      <c r="J22" t="n">
+        <v>999658611686628.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8.442598289971734e+16</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.875924402482911e+18</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5.439915040190862e+20</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.107347420561511e+22</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.975532425631882e+24</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.05572180156911e+26</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.359459281585476e+28</v>
+      </c>
+      <c r="R22" t="n">
+        <v>8.784302576038318e+29</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5.674208011761982e+31</v>
       </c>
     </row>
     <row r="23">
@@ -614,7 +1736,58 @@
         <v>0.02687111395900857</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02539431603911637</v>
+        <v>-5.259437485747187</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-435.2788391946443</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-28007.6770559413</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1817559.844615884</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-129266280.4836597</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-7872854063.550261</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-346274183089.7335</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-11368563018244.69</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-59466237685604.25</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.297637198800648e+16</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.704091595172199e+18</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5.315527178164196e+20</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.331624007081389e+22</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.320506596488264e+24</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.39505868537017e+26</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.640623321542632e+28</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.094687025643359e+30</v>
+      </c>
+      <c r="S23" t="n">
+        <v>7.300819493293298e+31</v>
       </c>
     </row>
     <row r="24">
@@ -622,7 +1795,58 @@
         <v>0.8395935783534152</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6764159873527081</v>
+        <v>1.572149542903642</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.955379311341822</v>
+      </c>
+      <c r="D24" t="n">
+        <v>42.55830288773234</v>
+      </c>
+      <c r="E24" t="n">
+        <v>212.6040895762399</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1128.167263463495</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5162.26591821566</v>
+      </c>
+      <c r="H24" t="n">
+        <v>19724.09557891903</v>
+      </c>
+      <c r="I24" t="n">
+        <v>84326.6085943318</v>
+      </c>
+      <c r="J24" t="n">
+        <v>305971.2385180127</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-202159.5247542709</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-14105702.28144164</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-136916557.115507</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-1125181111.542991</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-9701837161.693317</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-86741086182.49109</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-783026479632.4355</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-6911341222756.859</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-58952174929085.98</v>
       </c>
     </row>
     <row r="25">
@@ -630,7 +1854,58 @@
         <v>0.1298358672208684</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1100388389983356</v>
+        <v>2.918514108027398</v>
+      </c>
+      <c r="C25" t="n">
+        <v>47.69861614970642</v>
+      </c>
+      <c r="D25" t="n">
+        <v>884.0655404045726</v>
+      </c>
+      <c r="E25" t="n">
+        <v>15797.1135580731</v>
+      </c>
+      <c r="F25" t="n">
+        <v>384076.9135360474</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8995244.058761474</v>
+      </c>
+      <c r="H25" t="n">
+        <v>201595447.4028187</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4426057989.162033</v>
+      </c>
+      <c r="J25" t="n">
+        <v>95077794113.2515</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2003852002767.603</v>
+      </c>
+      <c r="L25" t="n">
+        <v>41621687797878.7</v>
+      </c>
+      <c r="M25" t="n">
+        <v>857964984545317.2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.761908523468276e+16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.65475356847691e+17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7.880857115785009e+18</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.789996847886093e+20</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.201231754376288e+21</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9.896186452200758e+22</v>
       </c>
     </row>
     <row r="26">
@@ -638,7 +1913,58 @@
         <v>0.1838494099857298</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1536557422819028</v>
+        <v>2.778577846630557</v>
+      </c>
+      <c r="C26" t="n">
+        <v>39.92390673954319</v>
+      </c>
+      <c r="D26" t="n">
+        <v>641.4253249556859</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9320.181878516269</v>
+      </c>
+      <c r="F26" t="n">
+        <v>145796.4732960286</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2468465.218550753</v>
+      </c>
+      <c r="H26" t="n">
+        <v>43337065.5490147</v>
+      </c>
+      <c r="I26" t="n">
+        <v>808378005.9694866</v>
+      </c>
+      <c r="J26" t="n">
+        <v>15383223372.6376</v>
+      </c>
+      <c r="K26" t="n">
+        <v>289716742677.5032</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5355496106003.423</v>
+      </c>
+      <c r="M26" t="n">
+        <v>96671862763547.53</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1720225343391180</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.089770152791034e+16</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.687225400830465e+17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.077642707931076e+19</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.079261787621633e+20</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.020645609351501e+21</v>
       </c>
     </row>
     <row r="27">
@@ -646,7 +1972,58 @@
         <v>0.1310435795481181</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1346133361584621</v>
+        <v>2.321360446050893</v>
+      </c>
+      <c r="C27" t="n">
+        <v>30.77168528872109</v>
+      </c>
+      <c r="D27" t="n">
+        <v>446.5067182954959</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5793.60160391693</v>
+      </c>
+      <c r="F27" t="n">
+        <v>81979.44409247696</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1260434.922306169</v>
+      </c>
+      <c r="H27" t="n">
+        <v>19524915.36773791</v>
+      </c>
+      <c r="I27" t="n">
+        <v>311401573.0941228</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4972605423.134102</v>
+      </c>
+      <c r="K27" t="n">
+        <v>78847070894.47687</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1246165908890.009</v>
+      </c>
+      <c r="M27" t="n">
+        <v>19700093966256.09</v>
+      </c>
+      <c r="N27" t="n">
+        <v>311820815759437.8</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4979536297575442</v>
+      </c>
+      <c r="P27" t="n">
+        <v>8.10278881014203e+16</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.346447938629856e+18</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.265564075275131e+19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.817406757435298e+20</v>
       </c>
     </row>
     <row r="28">
@@ -654,7 +2031,58 @@
         <v>0.3703360383785936</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2314731374672672</v>
+        <v>3.121656500676893</v>
+      </c>
+      <c r="C28" t="n">
+        <v>46.30385778116987</v>
+      </c>
+      <c r="D28" t="n">
+        <v>724.233081288345</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10302.30247756819</v>
+      </c>
+      <c r="F28" t="n">
+        <v>172895.719565588</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2888988.004490491</v>
+      </c>
+      <c r="H28" t="n">
+        <v>45763852.24836728</v>
+      </c>
+      <c r="I28" t="n">
+        <v>723639074.1637813</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10541432015.19578</v>
+      </c>
+      <c r="K28" t="n">
+        <v>139331650631.7133</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1687824952407.287</v>
+      </c>
+      <c r="M28" t="n">
+        <v>19921166743314.87</v>
+      </c>
+      <c r="N28" t="n">
+        <v>218674352343878.4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1654109660066714</v>
+      </c>
+      <c r="P28" t="n">
+        <v>500938671815024</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-2.50268983955964e+17</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-6.166102410034821e+18</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-1.365578476358999e+20</v>
       </c>
     </row>
     <row r="29">
@@ -662,7 +2090,58 @@
         <v>0.6984110970134783</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5849379420876908</v>
+        <v>2.101613810448638</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11.71389738790699</v>
+      </c>
+      <c r="D29" t="n">
+        <v>67.55647670173339</v>
+      </c>
+      <c r="E29" t="n">
+        <v>351.2232397132267</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2140.637146574784</v>
+      </c>
+      <c r="G29" t="n">
+        <v>12546.86594129427</v>
+      </c>
+      <c r="H29" t="n">
+        <v>75797.38488033507</v>
+      </c>
+      <c r="I29" t="n">
+        <v>500066.3352548867</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3171555.256191041</v>
+      </c>
+      <c r="K29" t="n">
+        <v>18641174.95080873</v>
+      </c>
+      <c r="L29" t="n">
+        <v>99323216.982573</v>
+      </c>
+      <c r="M29" t="n">
+        <v>453494225.3120933</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1363549955.995872</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-2759204546.381737</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-90599428749.39246</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-994695668761.0996</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-8864219789227.66</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-75277103306153.86</v>
       </c>
     </row>
     <row r="30">
@@ -670,7 +2149,58 @@
         <v>0.2505934258380249</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2025572122821401</v>
+        <v>2.792518318182434</v>
+      </c>
+      <c r="C30" t="n">
+        <v>33.43226224659498</v>
+      </c>
+      <c r="D30" t="n">
+        <v>424.6398458186541</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4571.916635781113</v>
+      </c>
+      <c r="F30" t="n">
+        <v>61778.63931996255</v>
+      </c>
+      <c r="G30" t="n">
+        <v>902094.7944932908</v>
+      </c>
+      <c r="H30" t="n">
+        <v>13167408.99040742</v>
+      </c>
+      <c r="I30" t="n">
+        <v>203044841.464224</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3133985084.728502</v>
+      </c>
+      <c r="K30" t="n">
+        <v>46779559561.63618</v>
+      </c>
+      <c r="L30" t="n">
+        <v>667184159157.733</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8996283226997.564</v>
+      </c>
+      <c r="N30" t="n">
+        <v>114914259831462.4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1426165864743174</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.835256254276173e+16</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.632904426309394e+17</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4.144833822021235e+18</v>
+      </c>
+      <c r="S30" t="n">
+        <v>6.60383123028807e+19</v>
       </c>
     </row>
     <row r="31">
@@ -678,7 +2208,58 @@
         <v>0.08202811042531011</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0652986017292802</v>
+        <v>2.036103475089222</v>
+      </c>
+      <c r="C31" t="n">
+        <v>25.2317713813674</v>
+      </c>
+      <c r="D31" t="n">
+        <v>339.1196789056248</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4221.028674651889</v>
+      </c>
+      <c r="F31" t="n">
+        <v>62856.91503884575</v>
+      </c>
+      <c r="G31" t="n">
+        <v>966179.1197369335</v>
+      </c>
+      <c r="H31" t="n">
+        <v>15726477.42422883</v>
+      </c>
+      <c r="I31" t="n">
+        <v>265380405.0541679</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4502712704.767275</v>
+      </c>
+      <c r="K31" t="n">
+        <v>75742046500.90453</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1246040442097.715</v>
+      </c>
+      <c r="M31" t="n">
+        <v>19939013268936.98</v>
+      </c>
+      <c r="N31" t="n">
+        <v>315228795909898.3</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5021411181043776</v>
+      </c>
+      <c r="P31" t="n">
+        <v>8.111065800893421e+16</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.329305129686329e+18</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.196401496043494e+19</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.630324041249478e+20</v>
       </c>
     </row>
     <row r="32">
@@ -686,7 +2267,58 @@
         <v>0.2320925800028873</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2164869098289154</v>
+        <v>3.766522250321052</v>
+      </c>
+      <c r="C32" t="n">
+        <v>67.45891794981276</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1330.630325620598</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23865.39861765192</v>
+      </c>
+      <c r="F32" t="n">
+        <v>420318.3305683149</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7341258.806654641</v>
+      </c>
+      <c r="H32" t="n">
+        <v>129395474.0836554</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2640100558.708273</v>
+      </c>
+      <c r="J32" t="n">
+        <v>56148912768.92673</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1167086955602.377</v>
+      </c>
+      <c r="L32" t="n">
+        <v>23594992818258.86</v>
+      </c>
+      <c r="M32" t="n">
+        <v>462094586813157</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8782537084007987</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.66594029478887e+17</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.323713205276782e+18</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>7.238256260181621e+19</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.676518291729295e+21</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.910493454849168e+22</v>
       </c>
     </row>
     <row r="33">
@@ -694,7 +2326,58 @@
         <v>0.1518265953666065</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1599713753107591</v>
+        <v>3.574935291632181</v>
+      </c>
+      <c r="C33" t="n">
+        <v>71.47185865654767</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1486.959208094514</v>
+      </c>
+      <c r="E33" t="n">
+        <v>25793.46352917384</v>
+      </c>
+      <c r="F33" t="n">
+        <v>475581.7920614453</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9333258.629600601</v>
+      </c>
+      <c r="H33" t="n">
+        <v>181462474.1088493</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4029129577.243428</v>
+      </c>
+      <c r="J33" t="n">
+        <v>91230367942.97986</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1947432591094.893</v>
+      </c>
+      <c r="L33" t="n">
+        <v>37868312848506.63</v>
+      </c>
+      <c r="M33" t="n">
+        <v>625216949440981.2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7137688575808477</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-1.200679738972691e+16</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-3.633177478608577e+18</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-1.310336474445482e+20</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-3.604457975131354e+21</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-9.690231926247457e+22</v>
       </c>
     </row>
     <row r="34">
@@ -702,7 +2385,58 @@
         <v>0.1094245586281686</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07668897726859338</v>
+        <v>3.224076543649101</v>
+      </c>
+      <c r="C34" t="n">
+        <v>56.57651261031856</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1073.544135549535</v>
+      </c>
+      <c r="E34" t="n">
+        <v>17782.17100174493</v>
+      </c>
+      <c r="F34" t="n">
+        <v>333433.3177008277</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6518283.269139448</v>
+      </c>
+      <c r="H34" t="n">
+        <v>149144030.0981754</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3753415729.139597</v>
+      </c>
+      <c r="J34" t="n">
+        <v>95771687023.43648</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2402659497386.501</v>
+      </c>
+      <c r="L34" t="n">
+        <v>58158041904263.8</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1349712124895536</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.067182138869972e+16</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6.993496157847854e+17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.604150868174593e+19</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.700488833291649e+20</v>
+      </c>
+      <c r="R34" t="n">
+        <v>8.563266940204798e+21</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.981078893443975e+23</v>
       </c>
     </row>
     <row r="35">
@@ -710,7 +2444,58 @@
         <v>0.4042957538170733</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2904597654567493</v>
+        <v>62.22963786569741</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10098.60626660203</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1639448.122477262</v>
+      </c>
+      <c r="E35" t="n">
+        <v>266162756.9825301</v>
+      </c>
+      <c r="F35" t="n">
+        <v>42354744121.12644</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6304239524735.297</v>
+      </c>
+      <c r="H35" t="n">
+        <v>796858038601173.6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.005062982824027e+17</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.284274465716241e+19</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.432997749545149e+21</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.290980892103948e+23</v>
+      </c>
+      <c r="M35" t="n">
+        <v>7.164742563231046e+24</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-7.164835870385247e+26</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-4.007623412288408e+29</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-9.796406643580404e+31</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-1.824541939060077e+34</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-3.016769803861896e+36</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-4.93137162687372e+38</v>
       </c>
     </row>
     <row r="36">
@@ -718,7 +2503,58 @@
         <v>0.2842324891237176</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1613062843236384</v>
+        <v>33.34130954697087</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5059.064834538643</v>
+      </c>
+      <c r="D36" t="n">
+        <v>762215.6288405113</v>
+      </c>
+      <c r="E36" t="n">
+        <v>107032800.1633175</v>
+      </c>
+      <c r="F36" t="n">
+        <v>14234015680.07639</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1946776671755.12</v>
+      </c>
+      <c r="H36" t="n">
+        <v>229160866877666.8</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.597049963317249e+16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.830467896575727e+18</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.596475991552879e+20</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.51698594612025e+22</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-8.859962602619834e+23</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-5.414981012736325e+26</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-1.31263909405178e+29</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-2.40758518071791e+31</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-3.756624159325593e+33</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-5.405904828974511e+35</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-7.721637259021725e+37</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +2562,58 @@
         <v>-0.02671313311160461</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.01921542017419373</v>
+        <v>5.502228122011897</v>
+      </c>
+      <c r="C37" t="n">
+        <v>752.0479671602988</v>
+      </c>
+      <c r="D37" t="n">
+        <v>110946.4341555116</v>
+      </c>
+      <c r="E37" t="n">
+        <v>14867578.81324414</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2105524649.671734</v>
+      </c>
+      <c r="G37" t="n">
+        <v>283072130430.4593</v>
+      </c>
+      <c r="H37" t="n">
+        <v>30800195477405.19</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2826305134054242</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.08481949339071e+17</v>
+      </c>
+      <c r="K37" t="n">
+        <v>9.051884363483116e+18</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-6.897904159245097e+20</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-2.615617731223108e+23</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-4.910295022079379e+25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-7.587798832217587e+27</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-1.022950114446975e+30</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-1.24520520776237e+32</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-1.435301494566514e+34</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-1.647058137855758e+36</v>
       </c>
     </row>
     <row r="38">
@@ -734,7 +2621,58 @@
         <v>0.3607894319027811</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3034417197658699</v>
+        <v>59.48592868444709</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10505.03476148913</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1786924.278202304</v>
+      </c>
+      <c r="E38" t="n">
+        <v>290276533.6970693</v>
+      </c>
+      <c r="F38" t="n">
+        <v>43798441962.03745</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6119368742188.979</v>
+      </c>
+      <c r="H38" t="n">
+        <v>866778412313184.8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.32015432894926e+17</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.986316239388751e+19</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.882798526090615e+21</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.990431192716405e+23</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5.183463285494766e+25</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.166217658890814e+27</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6.734785005354604e+29</v>
+      </c>
+      <c r="P38" t="n">
+        <v>7.376663440750901e+31</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.760236947910323e+33</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.601926284023577e+36</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.699100483838958e+38</v>
       </c>
     </row>
     <row r="39">
@@ -742,7 +2680,58 @@
         <v>-0.1124807735437134</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1498292724577766</v>
+        <v>-31.72380245351552</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-7217.517717393299</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1648969.983440038</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-390814008.7793196</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-100757099114.5464</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-29144418560760.98</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-8518018174634555</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-2.473179168477423e+18</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-6.980350251962101e+20</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-1.898556749530837e+23</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-5.003344727328537e+25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-1.288312173029631e+28</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-3.271567971730324e+30</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-8.222732426059902e+32</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-2.048214126503625e+35</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-5.072124526887339e+37</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-1.253427157886494e+40</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-3.099056868232744e+42</v>
       </c>
     </row>
     <row r="40">
@@ -750,7 +2739,58 @@
         <v>0.1492292611282714</v>
       </c>
       <c r="B40" t="n">
-        <v>0.183457992883758</v>
+        <v>25.29825396991856</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4042.758476295157</v>
+      </c>
+      <c r="D40" t="n">
+        <v>625642.4216303719</v>
+      </c>
+      <c r="E40" t="n">
+        <v>83472767.18564869</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7777896951.709035</v>
+      </c>
+      <c r="G40" t="n">
+        <v>901973472301.4427</v>
+      </c>
+      <c r="H40" t="n">
+        <v>87883193949288.59</v>
+      </c>
+      <c r="I40" t="n">
+        <v>8022997844924136</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5.951904517315802e+17</v>
+      </c>
+      <c r="K40" t="n">
+        <v>9.53337435308918e+18</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-7.534835431230294e+21</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-1.948431965065725e+24</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-3.625700832272129e+26</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-6.059037843717985e+28</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-9.204719559883679e+30</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-1.291826896548624e+33</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-1.736162269462364e+35</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-2.325050879487658e+37</v>
       </c>
     </row>
     <row r="41">
@@ -758,7 +2798,58 @@
         <v>-0.1645398281152756</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.2194875342870689</v>
+        <v>-19.83312092328043</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1932.840019141873</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-111376.6442302996</v>
+      </c>
+      <c r="E41" t="n">
+        <v>14624808.03087611</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8498407445.812117</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2569887073183.854</v>
+      </c>
+      <c r="H41" t="n">
+        <v>553450779576684.7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9.217048109646955e+16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.321874955093755e+19</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.784497463350888e+21</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.212028684625845e+23</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.403698178838482e+25</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.905268649867907e+27</v>
+      </c>
+      <c r="O41" t="n">
+        <v>9.99756518225867e+26</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-3.532868656338799e+31</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-8.083684199134335e+33</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-1.304646101536856e+36</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-2.026365277453549e+38</v>
       </c>
     </row>
     <row r="42">
@@ -766,7 +2857,58 @@
         <v>0.2819136431339014</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2764821163800744</v>
+        <v>35.31971586637169</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3771.814120808567</v>
+      </c>
+      <c r="D42" t="n">
+        <v>430873.6177178232</v>
+      </c>
+      <c r="E42" t="n">
+        <v>52247649.36210462</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5889495406.279016</v>
+      </c>
+      <c r="G42" t="n">
+        <v>583333361708.5801</v>
+      </c>
+      <c r="H42" t="n">
+        <v>55881954531481.55</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5794530859400755</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6.192329478884247e+17</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6.357970926958594e+19</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.023927754240349e+21</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4.90364210243661e+23</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.978638660095984e+25</v>
+      </c>
+      <c r="O42" t="n">
+        <v>6.36082489800115e+26</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-1.430320528884266e+29</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-2.562367543552373e+31</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-2.795179241887873e+33</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-2.879218746393787e+35</v>
       </c>
     </row>
     <row r="43">
@@ -774,7 +2916,58 @@
         <v>0.1166719301517765</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1570997822562603</v>
+        <v>31.19600114239771</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8022.162660194519</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1960320.176386861</v>
+      </c>
+      <c r="E43" t="n">
+        <v>461903073.5606207</v>
+      </c>
+      <c r="F43" t="n">
+        <v>104804854998.7171</v>
+      </c>
+      <c r="G43" t="n">
+        <v>22816109753345.89</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4667653567550665</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9.16833071232436e+17</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.740267727986337e+20</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.15792006446028e+22</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.336018878038876e+24</v>
+      </c>
+      <c r="M43" t="n">
+        <v>8.024426651511613e+26</v>
+      </c>
+      <c r="N43" t="n">
+        <v>9.89038062887053e+28</v>
+      </c>
+      <c r="O43" t="n">
+        <v>8.169835990799641e+30</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5.803594703172364e+30</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-1.319355708087645e+35</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-2.640514945069244e+37</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-4.675691272925157e+39</v>
       </c>
     </row>
     <row r="44">
@@ -782,7 +2975,58 @@
         <v>0.03903648804324042</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.03261894322829163</v>
+        <v>1.321530364207749</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-172.2509533435544</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-107554.9408098458</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-31034785.38691111</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-6796187064.249839</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1399138246880.968</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-383758615960756.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-8.971667783939267e+16</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1.945682529850817e+19</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-4.249865123686944e+21</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-9.948544735371008e+23</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-2.4354741884228e+26</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-5.68861929193729e+28</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-1.263808352989219e+31</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-2.654518338197794e+33</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-5.286059610256646e+35</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-1.022759790065864e+38</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-1.975298520691179e+40</v>
       </c>
     </row>
     <row r="45">
@@ -790,7 +3034,58 @@
         <v>-0.1207317465490824</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.07712475407900811</v>
+        <v>-3.936175644798476</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-306.3507045150366</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-18180.20084844469</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1884942.008068948</v>
+      </c>
+      <c r="F45" t="n">
+        <v>458005817.3666886</v>
+      </c>
+      <c r="G45" t="n">
+        <v>47203357608.89011</v>
+      </c>
+      <c r="H45" t="n">
+        <v>785808903976.9834</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-512945203239520</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1.167897615940202e+17</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-1.991063631740866e+19</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-3.067607510879091e+21</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-4.470506862272497e+23</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-6.154542478381735e+25</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-8.012907210703476e+27</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-9.807978344096214e+29</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-1.135108088861124e+32</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-1.272977114465515e+34</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-1.42455397095032e+36</v>
       </c>
     </row>
     <row r="46">
@@ -798,7 +3093,58 @@
         <v>-0.172434941020288</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1607961516556028</v>
+        <v>-4.444398157430972</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-178.0135629525738</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-5982.07529667207</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-183831.7725885373</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-5584024.944528515</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-197061762.8771508</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-5480119738.622507</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-128590346097.999</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-2053624671859.023</v>
+      </c>
+      <c r="K46" t="n">
+        <v>11927787697295.75</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2744544461710678</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.449765432120636e+17</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6.087327595712932e+18</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.423191941942513e+20</v>
+      </c>
+      <c r="P46" t="n">
+        <v>9.184414691300846e+21</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3.345329299631277e+23</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.19445834777246e+25</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4.251017644103602e+26</v>
       </c>
     </row>
     <row r="47">
@@ -806,7 +3152,58 @@
         <v>-0.1679883498925968</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1598627741767813</v>
+        <v>-5.595100356330569</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-268.7951215935719</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-11017.65564217207</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-414341.4700904227</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-15411753.3657943</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-661434217.8917923</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-22889242622.7168</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-687140034507.714</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-15906416305449.52</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-134000556149440</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.21733729303081e+16</v>
+      </c>
+      <c r="M47" t="n">
+        <v>9.583136805932561e+17</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.130707083287733e+19</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.540196683579768e+21</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.178963521149644e+23</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5.206466334151816e+24</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.243863120518536e+26</v>
+      </c>
+      <c r="S47" t="n">
+        <v>9.632185930156506e+27</v>
       </c>
     </row>
     <row r="48">
@@ -814,7 +3211,58 @@
         <v>-0.2209854448837378</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.1935945540093548</v>
+        <v>-6.268583366011983</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-284.3296419041775</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-11080.55952646939</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-399565.4151499034</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-14473299.71347667</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-596822387.9137192</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-20332778975.90733</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-616583068895.8823</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-15199201758817.3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-215970262239806.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4435054783423068</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5.086052121400598e+17</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.875553333614562e+19</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.449170748975506e+21</v>
+      </c>
+      <c r="P48" t="n">
+        <v>6.718027685626662e+22</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.931576027940676e+24</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.242553842699962e+26</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5.239060907754908e+27</v>
       </c>
     </row>
     <row r="49">
@@ -822,7 +3270,58 @@
         <v>-0.2234889888131208</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.1933404368588273</v>
+        <v>-8.047688683573208</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-443.1771941141517</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-20848.32409564472</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-910702.080936745</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-40256959.14014717</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1999769124.162221</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-83791716202.44827</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-3178656201541.216</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-102278440678856.6</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-2377357109054450</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-1.171414531423418e+16</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2.580969462582364e+18</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.207177754304007e+20</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.475058157445495e+22</v>
+      </c>
+      <c r="P49" t="n">
+        <v>8.617750210430242e+23</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4.621232557084279e+25</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.38231474171081e+27</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.219600493213712e+29</v>
       </c>
     </row>
     <row r="50">
@@ -830,7 +3329,58 @@
         <v>-0.1022061371806729</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1135780396913113</v>
+        <v>-10.56237966589652</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1066.388724355387</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-89977.66176247463</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-7196578.398556046</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-572848340.9640019</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-48095141444.26321</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-3448160696316.206</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-225705029150264.7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-1.321939068100378e+16</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-6.65235530965323e+17</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-2.753829106047213e+19</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-9.253685425961965e+20</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-1.046484762158974e+22</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3.46375556098814e+24</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5.162430062819445e+26</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5.137775279274632e+28</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4.50910901067069e+30</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.886751306487439e+32</v>
       </c>
     </row>
     <row r="51">
@@ -838,7 +3388,58 @@
         <v>-0.2278083440056071</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2170910917395659</v>
+        <v>-7.855568142887867</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-394.3680619492941</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-17323.7445366839</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-707143.7021690491</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-28780028.32850362</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1335649577.857099</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-52157389634.69736</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-1841717667732.319</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-54235403207389.52</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-1064255189815409</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5227835308784768</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.802909890542771e+18</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.280389831062877e+20</v>
+      </c>
+      <c r="O51" t="n">
+        <v>7.69859745495284e+21</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4.165973613022792e+23</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.098932470973814e+25</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.022214938309137e+27</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4.944371069014055e+28</v>
       </c>
     </row>
     <row r="52">
@@ -846,7 +3447,58 @@
         <v>-0.2278083440056071</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.2170910917395659</v>
+        <v>-7.855568142887867</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-394.3680619492941</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-17323.7445366839</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-707143.7021690491</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-28780028.32850362</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1335649577.857099</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-52157389634.69736</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-1841717667732.319</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-54235403207389.52</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-1064255189815409</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5227835308784768</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.802909890542771e+18</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.280389831062877e+20</v>
+      </c>
+      <c r="O52" t="n">
+        <v>7.69859745495284e+21</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4.165973613022792e+23</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.098932470973814e+25</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.022214938309137e+27</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4.944371069014055e+28</v>
       </c>
     </row>
     <row r="53">
@@ -854,7 +3506,58 @@
         <v>-0.1952448759629271</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1756372678191264</v>
+        <v>-4.10496578920454</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-160.0743337080676</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-5341.431079259466</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-164209.8783441083</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-4858039.177777465</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-168883022.6674777</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-4625252880.301497</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-107669325448.0002</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1783221605694.142</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2115515953206.469</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1761070818274262</v>
+      </c>
+      <c r="M53" t="n">
+        <v>9.377563191362691e+16</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.849174110472275e+18</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.496059889703256e+20</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5.534367632031799e+21</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.966988199451342e+23</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6.853259000034067e+24</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.379683678440769e+26</v>
       </c>
     </row>
     <row r="54">
@@ -862,7 +3565,58 @@
         <v>-0.2180694839001492</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1926282370764213</v>
+        <v>-13.08135833209132</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-999.2507175245701</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-66740.76266080744</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-4130965.749057687</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-253220451.3940054</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-17231763376.69991</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-1026950780232.795</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-57214209870614.12</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-2863916732271663</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-1.237636484362973e+17</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-4.428329584105038e+18</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-1.287184411238521e+20</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-1.322802225836087e+21</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3.381915691963055e+23</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4.346462150211797e+25</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3.715047653128835e+27</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.800512816712157e+29</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.068239694347923e+31</v>
       </c>
     </row>
     <row r="55">
@@ -870,7 +3624,58 @@
         <v>-0.1552409275042511</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1361822745476835</v>
+        <v>-4.342078152767358</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-200.558394558147</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-7592.426736038113</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-266732.5330516851</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-9802402.479703769</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-407591386.5515882</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-13347734012.06131</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-371677849075.3962</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-7617120067753.135</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-26772975951735.5</v>
+      </c>
+      <c r="L55" t="n">
+        <v>7550278146657830</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5.015471196412166e+17</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.448008729256514e+19</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.119465023417543e+21</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4.837661559843322e+22</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.998931928413558e+24</v>
+      </c>
+      <c r="R55" t="n">
+        <v>8.079399012189534e+25</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.253932930017438e+27</v>
       </c>
     </row>
     <row r="56">
@@ -878,7 +3683,58 @@
         <v>-0.1175524768941751</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1160085596124987</v>
+        <v>-6.723910156949398</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-382.1232172121668</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-18300.24387907075</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-809120.9313360467</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-36445007.15741841</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1779750063.163958</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-72794589144.77159</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-2658952225333.371</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-79745283226358.41</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-1500006509593501</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2.043295316508672e+16</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.842116378489446e+18</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.743226148997013e+20</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.685740001647105e+22</v>
+      </c>
+      <c r="P56" t="n">
+        <v>9.364105943709241e+23</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4.849126143135119e+25</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.428328442239498e+27</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.209784170194627e+29</v>
       </c>
     </row>
     <row r="57">
@@ -886,7 +3742,58 @@
         <v>-0.1837436120102373</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1421331029364994</v>
+        <v>-6.419425450140324</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-309.4103802842116</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-12682.8360290472</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-481676.987937678</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-18012943.84463216</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-740069184.3827857</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-25009888862.76859</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-748561667802.405</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-17832011440711.06</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-190340718361921</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.106298016881352e+16</v>
+      </c>
+      <c r="M57" t="n">
+        <v>9.800988011208691e+17</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5.51013141453329e+19</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.785732773773973e+21</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.296802303319974e+23</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5.676829003796896e+24</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.412188755465302e+26</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.021782491496656e+28</v>
       </c>
     </row>
     <row r="58">
@@ -894,7 +3801,58 @@
         <v>-0.1467449462786686</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.1967644572964131</v>
+        <v>-8.153545561980929</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-386.3387995240886</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-17193.46076158988</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-729581.4389129583</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-29251062.00197282</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1221655216.262093</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-43974055063.48524</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1462743727581.752</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-41973334109892.93</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-862208080320665.5</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1013807886063600</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.115723645294142e+18</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.620148512384239e+19</v>
+      </c>
+      <c r="O58" t="n">
+        <v>5.122018529852551e+21</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.632220480935697e+23</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.232645056637473e+25</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5.52627737857856e+26</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.465525595177103e+28</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +3860,58 @@
         <v>-0.2224792430287997</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.2299764227862012</v>
+        <v>-9.565030198831289</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-474.6136726598405</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-21786.82998681072</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-949539.123656827</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-41043423.38755378</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1876856159.909518</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-74992179916.31303</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-2801474686612.722</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-92223833106757.78</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-2425954637205992</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-3.65851474434633e+16</v>
+      </c>
+      <c r="M59" t="n">
+        <v>8.564991910475459e+17</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.273930033271218e+20</v>
+      </c>
+      <c r="O59" t="n">
+        <v>9.451205520420501e+21</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5.571919766039728e+23</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.900742734962883e+25</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.42935463415816e+27</v>
+      </c>
+      <c r="S59" t="n">
+        <v>6.990329884401748e+28</v>
       </c>
     </row>
     <row r="60">
@@ -910,7 +3919,58 @@
         <v>-0.2531512652069413</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.24948062307687</v>
+        <v>-16.8110609026286</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1167.286852204858</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-75902.18089767218</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-4727767.76889789</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-296817261.7067801</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-19306624727.16585</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-1135154697801.864</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-64037631905592.45</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-3282548993809726</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-1.470513418144558e+17</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-5.357387139179412e+18</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-1.245890717085269e+20</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3.93946980038035e+21</v>
+      </c>
+      <c r="O60" t="n">
+        <v>9.739713047301813e+23</v>
+      </c>
+      <c r="P60" t="n">
+        <v>9.842480864129112e+25</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>7.741073081306622e+27</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5.536225671040853e+29</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.917201991592816e+31</v>
       </c>
     </row>
     <row r="61">
@@ -918,7 +3978,58 @@
         <v>-0.2679013037651269</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.2248580835488676</v>
+        <v>-41.90765384262805</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-8656.621856770273</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-1822109.833224564</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-380353488.2503614</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-77907401168.29694</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-15667303117162.8</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-2806269019718316</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-4.77669451497777e+17</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-7.54884478301292e+19</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-1.093643136426641e+22</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-1.483427091963592e+24</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-2.040645495985649e+26</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-2.861900128155709e+28</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-3.665670822309177e+30</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-4.56452152289184e+32</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-6.566899680339352e+34</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-1.141033881634861e+37</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-2.015939701763221e+39</v>
       </c>
     </row>
     <row r="62">
@@ -926,7 +4037,58 @@
         <v>-0.1498573848783344</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.09214075319993889</v>
+        <v>-2.523655133141282</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-108.4376972086095</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-3754.830800940524</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-120143.3711151526</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-4235701.56724917</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-159877708.6933408</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-4561971160.358801</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-105138982232.488</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1504893168227.036</v>
+      </c>
+      <c r="K62" t="n">
+        <v>19989159556509.53</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2721902665141703</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.395725735322703e+17</v>
+      </c>
+      <c r="N62" t="n">
+        <v>5.82450113729835e+18</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.287271132621387e+20</v>
+      </c>
+      <c r="P62" t="n">
+        <v>8.492633763161069e+21</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3.013544105049816e+23</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.045641742590095e+25</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.620430696927033e+26</v>
       </c>
     </row>
     <row r="63">
@@ -934,7 +4096,58 @@
         <v>-0.4712532092516</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.4407478773075003</v>
+        <v>-19.14365074005966</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-982.4101246160351</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-47591.28904578763</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-2176409.35979389</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-100290615.0904588</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-4945781701.945435</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-229321153281.6436</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-10750013774806.78</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-476466183931209.9</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-1.926895453998004e+16</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-6.953199560392101e+17</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-2.157077912406576e+19</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-4.280083139476448e+20</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.247133202990871e+22</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2.101288850442931e+24</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.595938907047307e+26</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.010352299618952e+28</v>
+      </c>
+      <c r="S63" t="n">
+        <v>6.198916414448402e+29</v>
       </c>
     </row>
     <row r="64">
@@ -942,7 +4155,58 @@
         <v>-0.2960589708242725</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.2749834954519098</v>
+        <v>-8.018683302872152</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-340.41397718019</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-13121.9884610689</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-475997.7558485146</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-16885040.23653346</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-685636815.489494</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-23405960504.3858</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-727047140683.0256</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-19320337722620.33</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-359269579307601.9</v>
+      </c>
+      <c r="L64" t="n">
+        <v>270365633857688</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4.339889894644196e+17</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2.975311631235952e+19</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.624291131737402e+21</v>
+      </c>
+      <c r="P64" t="n">
+        <v>7.766693509970624e+22</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3.404636779014364e+24</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.433129926890292e+26</v>
+      </c>
+      <c r="S64" t="n">
+        <v>6.002547794773269e+27</v>
       </c>
     </row>
     <row r="65">
@@ -950,7 +4214,58 @@
         <v>-0.2482426222997058</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.2384391553372095</v>
+        <v>-22.90693616795931</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1970.988982002714</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-157209.9172183945</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-11645372.37376239</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-849160920.6872214</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-65278798692.59048</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-4704949018161.481</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-332550718327834.3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-2.164103521979697e+16</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-1.283507035162946e+18</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-6.8647134116072e+19</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-3.316518966688581e+21</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-1.247997081071761e+23</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-5.289800863945816e+22</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5.563692084017655e+26</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>6.730516188610297e+28</v>
+      </c>
+      <c r="R65" t="n">
+        <v>6.148755263239381e+30</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5.456781283678675e+32</v>
       </c>
     </row>
     <row r="66">
@@ -958,7 +4273,58 @@
         <v>-0.1047743062095829</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.08620917232219795</v>
+        <v>-5.655716831132118</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-330.9411519277916</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-16474.59114645169</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-795991.4099854562</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-41285816.64098834</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-2116301996.998189</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-90792488555.49396</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-3492219665263.553</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-114666323888989.2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-2769917276984383</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-1.247633135925376e+16</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3.879938112462052e+18</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3.54223694064388e+20</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.405897756433649e+22</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.398432723672497e+24</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>7.365587293317839e+25</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.706120888458653e+27</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.856271206479655e+29</v>
       </c>
     </row>
     <row r="67">
@@ -966,7 +4332,58 @@
         <v>0.01947647773925388</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.01456983493393927</v>
+        <v>-5.939276273764998</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-359.8133673936183</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-18245.95025650236</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-859841.443137564</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-39891080.77195849</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1837222669.102626</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-74239713356.22838</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-2751739477230.467</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-87962178850336</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-2176514953626180</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-2.306373734142154e+16</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.627630138719451e+18</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.719475788210822e+20</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.176754689936204e+22</v>
+      </c>
+      <c r="P67" t="n">
+        <v>6.658824282168196e+23</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.367630552117377e+25</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.617546954715036e+27</v>
+      </c>
+      <c r="S67" t="n">
+        <v>7.729429259559012e+28</v>
       </c>
     </row>
   </sheetData>
